--- a/src/score.xlsx
+++ b/src/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R121"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>param_min_samples_split</t>
+          <t>param_min_samples_leaf</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -501,20 +501,15 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>split5_test_score</t>
+          <t>mean_test_score</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>mean_test_score</t>
+          <t>std_test_score</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>std_test_score</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>rank_test_score</t>
         </is>
@@ -525,16 +520,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02654790878295898</v>
+        <v>0.04616670608520508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007724014071132727</v>
+        <v>0.005768016469031727</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02017637093861898</v>
+        <v>0.02725415229797363</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002412740547565368</v>
+        <v>0.004648724462971758</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -542,42 +537,39 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8</v>
+        <v>50</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 3, 'min_samples_split': 0.8}</t>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 50}</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.222969666492857</v>
+        <v>0.2921128344447327</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.2577682178701298</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.3376448797018213</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.2529171661778925</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.2761520239756316</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3890215241204084</v>
+        <v>0.2833190244340416</v>
       </c>
       <c r="P2" t="n">
-        <v>0.240806515802641</v>
+        <v>0.03051921441369076</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06881470490928498</v>
-      </c>
-      <c r="R2" t="n">
-        <v>91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -585,16 +577,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02652700742085775</v>
+        <v>0.04130582809448242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006259416745373594</v>
+        <v>0.002191251607906048</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01994780699412028</v>
+        <v>0.02493834495544434</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00251077696069204</v>
+        <v>0.00526113028125631</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -602,42 +594,39 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>60</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 60}</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2527677653566345</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2714221931920034</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3775501586286159</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2605058760271511</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2570512951731053</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.283859457675502</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.04725122998765328</v>
+      </c>
+      <c r="Q3" t="n">
         <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>{'criterion': 'gini', 'max_depth': 3, 'min_samples_split': 0.9}</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>0.1654387287245843</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1889674076880237</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.2442078658190253</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.1784404361354873</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.1996493648355396</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.8385543437037229</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.3025430244843972</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.2409691167435712</v>
-      </c>
-      <c r="R3" t="n">
-        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -645,16 +634,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02598031361897786</v>
+        <v>0.04250307083129883</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004944431002805926</v>
+        <v>0.008893961227426776</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02006852626800537</v>
+        <v>0.02356638908386231</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003034214607199676</v>
+        <v>0.004288896827251677</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -662,42 +651,39 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1</v>
+        <v>70</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 3, 'min_samples_split': 0.1}</t>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 70}</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.222969666492857</v>
+        <v>0.2756310582808412</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2900161564997622</v>
+        <v>0.2667758254137421</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.3630564388983506</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.2617620297292488</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.2560926516914642</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3890215241204084</v>
+        <v>0.2846636008027293</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2576479739379308</v>
+        <v>0.03971845286064159</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06638934277577528</v>
-      </c>
-      <c r="R4" t="n">
-        <v>87</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -705,16 +691,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0272372563680013</v>
+        <v>0.03548903465270996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002528581121839276</v>
+        <v>0.004228566542937725</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02277286847432454</v>
+        <v>0.02089061737060547</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004129721435472852</v>
+        <v>0.002278332316057901</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -722,42 +708,39 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.11</v>
+        <v>80</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 3, 'min_samples_split': 0.11}</t>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 80}</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.222969666492857</v>
+        <v>0.2741021969624468</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2900161564997622</v>
+        <v>0.2667758254137421</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.3506298804424831</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.3185915580757328</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.1995531785966008</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3890215241204084</v>
+        <v>0.2819305278982011</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2576479739379308</v>
+        <v>0.05126520774223286</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.06638934277577528</v>
-      </c>
-      <c r="R5" t="n">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -765,16 +748,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02865795294443766</v>
+        <v>0.04406266212463379</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003664812576963458</v>
+        <v>0.002634112681359413</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02084549268086751</v>
+        <v>0.02418971061706543</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003260880926215181</v>
+        <v>0.006330285824369793</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -782,42 +765,39 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.12</v>
+        <v>90</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 3, 'min_samples_split': 0.12}</t>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 90}</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.222969666492857</v>
+        <v>0.2359979262405128</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2900161564997622</v>
+        <v>0.2444182881134844</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.3041058723558562</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.2527033630429656</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.2382900633606424</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3890215241204084</v>
+        <v>0.2551031026226923</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2576479739379308</v>
+        <v>0.02517491412692244</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.06638934277577528</v>
-      </c>
-      <c r="R6" t="n">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -825,16 +805,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02571968237559001</v>
+        <v>0.03987565040588379</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005361834798449506</v>
+        <v>0.01036771197154888</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02038391431172689</v>
+        <v>0.02535877227783203</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003884163348501102</v>
+        <v>0.00662239044449095</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -842,42 +822,39 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.15</v>
+        <v>100</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 3, 'min_samples_split': 0.15}</t>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 100}</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.222969666492857</v>
+        <v>0.288292193803183</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2900161564997622</v>
+        <v>0.2234357238767763</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.2930258466161471</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.2364813672389546</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.1673866743401943</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3890215241204084</v>
+        <v>0.2417243611750511</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2576479739379308</v>
+        <v>0.0462351822052076</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.06638934277577528</v>
-      </c>
-      <c r="R7" t="n">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -885,16 +862,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02404507001241048</v>
+        <v>0.04186506271362304</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006532703142974477</v>
+        <v>0.006647657491583189</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02419523398081462</v>
+        <v>0.02132558822631836</v>
       </c>
       <c r="E8" t="n">
-        <v>0.006566785497322525</v>
+        <v>0.001664374503214933</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -902,42 +879,39 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8</v>
+        <v>110</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 4, 'min_samples_split': 0.8}</t>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 110}</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.222969666492857</v>
+        <v>0.280044144809043</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.220010978949198</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.2986509114584865</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.2537776623158661</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.1673866743401943</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3890215241204084</v>
+        <v>0.2439740743745576</v>
       </c>
       <c r="P8" t="n">
-        <v>0.240806515802641</v>
+        <v>0.04653294879451052</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06881470490928498</v>
-      </c>
-      <c r="R8" t="n">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -945,16 +919,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0201645294825236</v>
+        <v>0.03580894470214844</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003409691191749627</v>
+        <v>0.002645561584185351</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02042365074157715</v>
+        <v>0.02233762741088867</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003729504993427278</v>
+        <v>0.002169840996261724</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -962,42 +936,39 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9</v>
+        <v>120</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 4, 'min_samples_split': 0.9}</t>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 120}</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.1654387287245843</v>
+        <v>0.2639278375463405</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.2304256825442959</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2442078658190253</v>
+        <v>0.2986509114584865</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1784404361354873</v>
+        <v>0.2641375373210867</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1996493648355396</v>
+        <v>0.1724142478476962</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8385543437037229</v>
+        <v>0.2459112433435812</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3025430244843972</v>
+        <v>0.0426142675447607</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2409691167435712</v>
-      </c>
-      <c r="R9" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -1005,16 +976,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02676145235697429</v>
+        <v>0.04416899681091309</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005535322851226035</v>
+        <v>0.009946408429329539</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02227481206258138</v>
+        <v>0.02593288421630859</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003716480143768816</v>
+        <v>0.007559703585579427</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1022,42 +993,39 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1</v>
+        <v>130</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 4, 'min_samples_split': 0.1}</t>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 130}</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.2656109532423084</v>
+        <v>0.2658647162796317</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3836160615057391</v>
+        <v>0.2296252341216743</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2917627147859395</v>
+        <v>0.2986509114584865</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3032781141715606</v>
+        <v>0.3403290009451526</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1717428354590937</v>
+        <v>0.1723326469034269</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5105912185770676</v>
+        <v>0.2613605019416744</v>
       </c>
       <c r="P10" t="n">
-        <v>0.3211003162902848</v>
+        <v>0.05758467264804846</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1051824388791532</v>
-      </c>
-      <c r="R10" t="n">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1065,16 +1033,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03025579452514648</v>
+        <v>0.04951210021972656</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004017715341078239</v>
+        <v>0.0095394939048511</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0192789634068807</v>
+        <v>0.01850795745849609</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003138931469203444</v>
+        <v>0.002066744304841896</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1082,42 +1050,39 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>0.11</v>
+        <v>50</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 4, 'min_samples_split': 0.11}</t>
+          <t>{'criterion': 'gini', 'max_depth': 6, 'min_samples_leaf': 50}</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.2656109532423084</v>
+        <v>0.196830544529631</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3836160615057391</v>
+        <v>0.2124421561118622</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2917627147859395</v>
+        <v>0.5448647147388845</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3032781141715606</v>
+        <v>0.3475026709381867</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1717428354590937</v>
+        <v>0.1824081630949347</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5105912185770676</v>
+        <v>0.2968096498826998</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3211003162902848</v>
+        <v>0.1373335307025648</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1051824388791532</v>
-      </c>
-      <c r="R11" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1125,16 +1090,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02560218175252279</v>
+        <v>0.0382746696472168</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005543218171137851</v>
+        <v>0.005527721252614124</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01978015899658203</v>
+        <v>0.0268453598022461</v>
       </c>
       <c r="E12" t="n">
-        <v>0.005130619789003481</v>
+        <v>0.01400833029167483</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1142,42 +1107,39 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>0.12</v>
+        <v>60</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 4, 'min_samples_split': 0.12}</t>
+          <t>{'criterion': 'gini', 'max_depth': 6, 'min_samples_leaf': 60}</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.2656109532423084</v>
+        <v>0.2091119139767238</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3836160615057391</v>
+        <v>0.2059414450923281</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2917627147859395</v>
+        <v>0.3603180467596136</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3032781141715606</v>
+        <v>0.1549151330888192</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1717428354590937</v>
+        <v>0.3159783146611663</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5105912185770676</v>
+        <v>0.2492529707157302</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3211003162902848</v>
+        <v>0.07638657334550691</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1051824388791532</v>
-      </c>
-      <c r="R12" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -1185,16 +1147,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03341058890024821</v>
+        <v>0.04265680313110352</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01092258264986094</v>
+        <v>0.006265344044100777</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01794958114624023</v>
+        <v>0.0225156307220459</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003687056469914359</v>
+        <v>0.004326982840371113</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1202,42 +1164,39 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>0.15</v>
+        <v>70</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 4, 'min_samples_split': 0.15}</t>
+          <t>{'criterion': 'gini', 'max_depth': 6, 'min_samples_leaf': 70}</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.2656109532423084</v>
+        <v>0.2269471688002671</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3836160615057391</v>
+        <v>0.1952083229710564</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2917627147859395</v>
+        <v>0.3916301645935346</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3032781141715606</v>
+        <v>0.1752724743567754</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1717428354590937</v>
+        <v>0.325460327820811</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5105912185770676</v>
+        <v>0.2629036917084889</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3211003162902848</v>
+        <v>0.082508911380291</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1051824388791532</v>
-      </c>
-      <c r="R13" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1245,16 +1204,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02725485960642497</v>
+        <v>0.04078102111816406</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003393196878670665</v>
+        <v>0.005379191453901764</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02243971824645996</v>
+        <v>0.01979074478149414</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003675791654777326</v>
+        <v>0.002952572093451336</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1262,42 +1221,39 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_split': 0.8}</t>
+          <t>{'criterion': 'gini', 'max_depth': 6, 'min_samples_leaf': 80}</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0.222969666492857</v>
+        <v>0.1876716322978578</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.2117355087456457</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.3439541839352978</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.2311140270952052</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.2101010439234075</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3890215241204084</v>
+        <v>0.2369152791994828</v>
       </c>
       <c r="P14" t="n">
-        <v>0.240806515802641</v>
+        <v>0.05526109384863973</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.06881470490928498</v>
-      </c>
-      <c r="R14" t="n">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -1305,16 +1261,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02559940020243327</v>
+        <v>0.04092350006103516</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008055575963189912</v>
+        <v>0.006537028051533826</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02011203765869141</v>
+        <v>0.02360167503356934</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003426293417246081</v>
+        <v>0.007057528933231838</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1322,42 +1278,39 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_split': 0.9}</t>
+          <t>{'criterion': 'gini', 'max_depth': 6, 'min_samples_leaf': 90}</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.1654387287245843</v>
+        <v>0.1905622021162068</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.1860744448872774</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2442078658190253</v>
+        <v>0.3762612544361704</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1784404361354873</v>
+        <v>0.2251963527611454</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1996493648355396</v>
+        <v>0.2733354661097503</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8385543437037229</v>
+        <v>0.25028594406211</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3025430244843972</v>
+        <v>0.07031442079746558</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2409691167435712</v>
-      </c>
-      <c r="R15" t="n">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -1365,16 +1318,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03889588514963786</v>
+        <v>0.03791275024414063</v>
       </c>
       <c r="C16" t="n">
-        <v>0.005052880171277995</v>
+        <v>0.003666591833424532</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02376866340637207</v>
+        <v>0.02223305702209473</v>
       </c>
       <c r="E16" t="n">
-        <v>0.004657211765051367</v>
+        <v>0.002953511826355696</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1382,42 +1335,39 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_split': 0.1}</t>
+          <t>{'criterion': 'gini', 'max_depth': 6, 'min_samples_leaf': 100}</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.3122367936542739</v>
+        <v>0.2012703035098981</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5105205399057962</v>
+        <v>0.2243903907479637</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4191223824329744</v>
+        <v>0.3996614168946669</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4093722968802795</v>
+        <v>0.202455636909798</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2188994857967524</v>
+        <v>0.1938334803349115</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7791281776696515</v>
+        <v>0.2443222456794477</v>
       </c>
       <c r="P16" t="n">
-        <v>0.4415466127232879</v>
+        <v>0.07833637090815185</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1763280658143576</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -1425,16 +1375,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02967031796773275</v>
+        <v>0.04413957595825195</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004731965174711262</v>
+        <v>0.006956711041302807</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01902453104654948</v>
+        <v>0.02220396995544434</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002894585126340841</v>
+        <v>0.003264688433447051</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1442,42 +1392,39 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>0.11</v>
+        <v>110</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_split': 0.11}</t>
+          <t>{'criterion': 'gini', 'max_depth': 6, 'min_samples_leaf': 110}</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0.3122367936542739</v>
+        <v>0.2580921837329251</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5105205399057962</v>
+        <v>0.2127840213241141</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4191223824329744</v>
+        <v>0.3161905953791456</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4093722968802795</v>
+        <v>0.3221288439198987</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2188994857967524</v>
+        <v>0.180507885205444</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7791281776696515</v>
+        <v>0.2579407059123055</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4415466127232879</v>
+        <v>0.05576407000018813</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1763280658143576</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1485,16 +1432,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02636949221293132</v>
+        <v>0.04046339988708496</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002327859147256091</v>
+        <v>0.005744309589302411</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01766685644785563</v>
+        <v>0.02352609634399414</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002623652723387793</v>
+        <v>0.005747623004697666</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1502,42 +1449,39 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
-        <v>0.12</v>
+        <v>120</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_split': 0.12}</t>
+          <t>{'criterion': 'gini', 'max_depth': 6, 'min_samples_leaf': 120}</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.3122367936542739</v>
+        <v>0.2327964226917439</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4937335981555919</v>
+        <v>0.249800738043869</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4191223824329744</v>
+        <v>0.3293282281317541</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4093722968802795</v>
+        <v>0.2398541453046354</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2188994857967524</v>
+        <v>0.1803516021278807</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7791281776696515</v>
+        <v>0.2464262272599766</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4387487890982539</v>
+        <v>0.04791440074073292</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.17534187210433</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -1545,16 +1489,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03116285800933838</v>
+        <v>0.03486618995666504</v>
       </c>
       <c r="C19" t="n">
-        <v>0.004494867184778126</v>
+        <v>0.005421675919728166</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01879274845123291</v>
+        <v>0.02284698486328125</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002410082631681681</v>
+        <v>0.00344641752331942</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1562,42 +1506,39 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>0.15</v>
+        <v>130</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_split': 0.15}</t>
+          <t>{'criterion': 'gini', 'max_depth': 6, 'min_samples_leaf': 130}</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.3122367936542739</v>
+        <v>0.2285107093248707</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4937335981555919</v>
+        <v>0.2228219187373596</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3782033381322928</v>
+        <v>0.3293282281317541</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4093722968802795</v>
+        <v>0.2288358067547401</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1971821861116702</v>
+        <v>0.1802704301200862</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7791281776696515</v>
+        <v>0.2379534186137621</v>
       </c>
       <c r="P19" t="n">
-        <v>0.4283093984339599</v>
+        <v>0.04914863348913522</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1812530508819367</v>
-      </c>
-      <c r="R19" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -1605,16 +1546,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02395057678222656</v>
+        <v>0.04689788818359375</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00814108005888395</v>
+        <v>0.003754453916575327</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01787686347961426</v>
+        <v>0.02447457313537598</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001995343230717275</v>
+        <v>0.004315714178503059</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1622,42 +1563,39 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8</v>
+        <v>50</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 6, 'min_samples_split': 0.8}</t>
+          <t>{'criterion': 'gini', 'max_depth': 7, 'min_samples_leaf': 50}</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0.222969666492857</v>
+        <v>0.1935780532492555</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.2009811798508414</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.287468644282573</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.2025740078097304</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.1742541695678995</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3890215241204084</v>
+        <v>0.2117712109520599</v>
       </c>
       <c r="P20" t="n">
-        <v>0.240806515802641</v>
+        <v>0.03916537785098957</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.06881470490928498</v>
-      </c>
-      <c r="R20" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -1665,16 +1603,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01845057805379232</v>
+        <v>0.04669904708862305</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003894788892398798</v>
+        <v>0.008980550483482817</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01978325843811035</v>
+        <v>0.02155179977416992</v>
       </c>
       <c r="E21" t="n">
-        <v>0.006050844025068471</v>
+        <v>0.001599845731715166</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1682,42 +1620,39 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9</v>
+        <v>60</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 6, 'min_samples_split': 0.9}</t>
+          <t>{'criterion': 'gini', 'max_depth': 7, 'min_samples_leaf': 60}</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.1654387287245843</v>
+        <v>0.234824275773594</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.2368575483401781</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2442078658190253</v>
+        <v>0.2996412555448069</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1784404361354873</v>
+        <v>0.184199989869895</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1996493648355396</v>
+        <v>0.2573166122188791</v>
       </c>
       <c r="O21" t="n">
-        <v>0.8385543437037229</v>
+        <v>0.2425679363494706</v>
       </c>
       <c r="P21" t="n">
-        <v>0.3025430244843972</v>
+        <v>0.03734776349514727</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.2409691167435712</v>
-      </c>
-      <c r="R21" t="n">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -1725,16 +1660,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03408026695251465</v>
+        <v>0.04800701141357422</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00424831481965137</v>
+        <v>0.005322943944321304</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02227528889973958</v>
+        <v>0.02150068283081055</v>
       </c>
       <c r="E22" t="n">
-        <v>0.005723138801966001</v>
+        <v>0.002030605664055209</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1742,42 +1677,39 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1</v>
+        <v>70</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 6, 'min_samples_split': 0.1}</t>
+          <t>{'criterion': 'gini', 'max_depth': 7, 'min_samples_leaf': 70}</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0.3229178525823472</v>
+        <v>0.2696191934866738</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4539806339483487</v>
+        <v>0.2213699609182899</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4070145752892165</v>
+        <v>0.3145268747458275</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4488754252721491</v>
+        <v>0.213356546859727</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2974627802024301</v>
+        <v>0.2432038312169353</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6098556266864057</v>
+        <v>0.2524152814454907</v>
       </c>
       <c r="P22" t="n">
-        <v>0.4233511489968162</v>
+        <v>0.03668261741266052</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1021234435156248</v>
-      </c>
-      <c r="R22" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1785,16 +1717,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03075138727823893</v>
+        <v>0.04390010833740234</v>
       </c>
       <c r="C23" t="n">
-        <v>0.006725235003269598</v>
+        <v>0.01072512860200446</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02127647399902344</v>
+        <v>0.02088332176208496</v>
       </c>
       <c r="E23" t="n">
-        <v>0.006730351706475079</v>
+        <v>0.003471777163591725</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1802,42 +1734,39 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H23" t="n">
-        <v>0.11</v>
+        <v>80</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 6, 'min_samples_split': 0.11}</t>
+          <t>{'criterion': 'gini', 'max_depth': 7, 'min_samples_leaf': 80}</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.3229178525823472</v>
+        <v>0.2127205529723844</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4917962070048228</v>
+        <v>0.221091875124224</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4070145752892165</v>
+        <v>0.3358695297465836</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4488754252721491</v>
+        <v>0.262941688554497</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2974627802024301</v>
+        <v>0.2256412844573992</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6098556266864057</v>
+        <v>0.2516529861710176</v>
       </c>
       <c r="P23" t="n">
-        <v>0.4296537445062286</v>
+        <v>0.04548886787453988</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1049471380023658</v>
-      </c>
-      <c r="R23" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -1845,16 +1774,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03142289320627848</v>
+        <v>0.04629178047180176</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00794808285622052</v>
+        <v>0.007632065441688604</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01911270618438721</v>
+        <v>0.02093009948730469</v>
       </c>
       <c r="E24" t="n">
-        <v>0.003121304141967645</v>
+        <v>0.002427938670911583</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1862,42 +1791,39 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H24" t="n">
-        <v>0.12</v>
+        <v>90</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 6, 'min_samples_split': 0.12}</t>
+          <t>{'criterion': 'gini', 'max_depth': 7, 'min_samples_leaf': 90}</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0.3308415598334616</v>
+        <v>0.2206101530332611</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4644046791402166</v>
+        <v>0.2237177606434117</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3907301163396758</v>
+        <v>0.3739677153653206</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4488754252721491</v>
+        <v>0.1939245118328398</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2974627802024301</v>
+        <v>0.2325353496645747</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5038858742236317</v>
+        <v>0.2489510981078816</v>
       </c>
       <c r="P24" t="n">
-        <v>0.4060334058352608</v>
+        <v>0.06382238960090736</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.07359046006018483</v>
-      </c>
-      <c r="R24" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1905,16 +1831,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05015385150909424</v>
+        <v>0.04902539253234863</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03341220095854067</v>
+        <v>0.009836598800803871</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01540478070576986</v>
+        <v>0.02645158767700195</v>
       </c>
       <c r="E25" t="n">
-        <v>0.002877586386443445</v>
+        <v>0.007235060919480495</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1922,42 +1848,39 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H25" t="n">
-        <v>0.15</v>
+        <v>100</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 6, 'min_samples_split': 0.15}</t>
+          <t>{'criterion': 'gini', 'max_depth': 7, 'min_samples_leaf': 100}</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.3308415598334616</v>
+        <v>0.3336391279900037</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4644046791402166</v>
+        <v>0.2182053553993223</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3956899261979368</v>
+        <v>0.329280737501324</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4260375194687978</v>
+        <v>0.1773430429248488</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2450881951399051</v>
+        <v>0.1881629172891527</v>
       </c>
       <c r="O25" t="n">
-        <v>0.8106567768782763</v>
+        <v>0.2493262362209304</v>
       </c>
       <c r="P25" t="n">
-        <v>0.4454531094430991</v>
+        <v>0.06839945455400075</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1778895380240589</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -1965,16 +1888,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02638721466064453</v>
+        <v>0.04406542778015136</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01445289235304051</v>
+        <v>0.004341958174872583</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01889435450236003</v>
+        <v>0.02016806602478027</v>
       </c>
       <c r="E26" t="n">
-        <v>0.004854162113647721</v>
+        <v>0.0002202055990044025</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1985,39 +1908,36 @@
         <v>7</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8</v>
+        <v>110</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 7, 'min_samples_split': 0.8}</t>
+          <t>{'criterion': 'gini', 'max_depth': 7, 'min_samples_leaf': 110}</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.222969666492857</v>
+        <v>0.3407233958373874</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.1635871570475301</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.3340500488739472</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.2851088374260529</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.1843147055077716</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3890215241204084</v>
+        <v>0.2615568289385378</v>
       </c>
       <c r="P26" t="n">
-        <v>0.240806515802641</v>
+        <v>0.07435282321132812</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.06881470490928498</v>
-      </c>
-      <c r="R26" t="n">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2025,16 +1945,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02227397759755452</v>
+        <v>0.03605046272277832</v>
       </c>
       <c r="C27" t="n">
-        <v>0.007367391668496692</v>
+        <v>0.003502179584747529</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01944986979166667</v>
+        <v>0.02018089294433594</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001381129454240678</v>
+        <v>0.004490053411518223</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2045,39 +1965,36 @@
         <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9</v>
+        <v>120</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 7, 'min_samples_split': 0.9}</t>
+          <t>{'criterion': 'gini', 'max_depth': 7, 'min_samples_leaf': 120}</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.1654387287245843</v>
+        <v>0.3538001290927438</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.1683530603868108</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2442078658190253</v>
+        <v>0.3163099595955093</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1784404361354873</v>
+        <v>0.2595838848798869</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1996493648355396</v>
+        <v>0.1850999319688386</v>
       </c>
       <c r="O27" t="n">
-        <v>0.8385543437037229</v>
+        <v>0.2566293931847579</v>
       </c>
       <c r="P27" t="n">
-        <v>0.3025430244843972</v>
+        <v>0.07200253564879207</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.2409691167435712</v>
-      </c>
-      <c r="R27" t="n">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -2085,16 +2002,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03540484110514323</v>
+        <v>0.04023151397705078</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007368634369349978</v>
+        <v>0.005185441752117813</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01761809984842936</v>
+        <v>0.02276968955993652</v>
       </c>
       <c r="E28" t="n">
-        <v>0.002422080035659239</v>
+        <v>0.004242491973397534</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2105,39 +2022,36 @@
         <v>7</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1</v>
+        <v>130</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 7, 'min_samples_split': 0.1}</t>
+          <t>{'criterion': 'gini', 'max_depth': 7, 'min_samples_leaf': 130}</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0.2989142391386774</v>
+        <v>0.3116017680794487</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3946968522374423</v>
+        <v>0.1490141161517565</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3227511040577623</v>
+        <v>0.3163201336072199</v>
       </c>
       <c r="M28" t="n">
-        <v>0.4329212903101338</v>
+        <v>0.2167419722635908</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2663995487025673</v>
+        <v>0.1896146199669698</v>
       </c>
       <c r="O28" t="n">
-        <v>0.58041846053464</v>
+        <v>0.2366585220137972</v>
       </c>
       <c r="P28" t="n">
-        <v>0.3826835824968706</v>
+        <v>0.06671401958385084</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.1048001346236364</v>
-      </c>
-      <c r="R28" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29">
@@ -2145,16 +2059,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03671971956888834</v>
+        <v>0.0481755256652832</v>
       </c>
       <c r="C29" t="n">
-        <v>0.005425248413947407</v>
+        <v>0.004311779252345931</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02109464009602864</v>
+        <v>0.02175140380859375</v>
       </c>
       <c r="E29" t="n">
-        <v>0.005678218989842031</v>
+        <v>0.004904630220796602</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2162,42 +2076,39 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H29" t="n">
-        <v>0.11</v>
+        <v>50</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 7, 'min_samples_split': 0.11}</t>
+          <t>{'criterion': 'gini', 'max_depth': 8, 'min_samples_leaf': 50}</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0.3195487130902144</v>
+        <v>0.2180737223886824</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4777974046062723</v>
+        <v>0.1641177947549328</v>
       </c>
       <c r="L29" t="n">
-        <v>0.418931145762814</v>
+        <v>0.2551821800710913</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4329212903101338</v>
+        <v>0.1990853385796195</v>
       </c>
       <c r="N29" t="n">
-        <v>0.2663995487025673</v>
+        <v>0.2204423366878243</v>
       </c>
       <c r="O29" t="n">
-        <v>0.5630154992522254</v>
+        <v>0.2113802744964301</v>
       </c>
       <c r="P29" t="n">
-        <v>0.4131022669540378</v>
+        <v>0.02976722220272646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.09777539103459727</v>
-      </c>
-      <c r="R29" t="n">
-        <v>14</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -2205,16 +2116,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03425339857737223</v>
+        <v>0.0416074275970459</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0083799786446241</v>
+        <v>0.007709382196094893</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02037060260772705</v>
+        <v>0.02138257026672363</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003769905515248135</v>
+        <v>0.002775353172231931</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2222,42 +2133,39 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H30" t="n">
-        <v>0.12</v>
+        <v>60</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 7, 'min_samples_split': 0.12}</t>
+          <t>{'criterion': 'gini', 'max_depth': 8, 'min_samples_leaf': 60}</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0.2840484135502662</v>
+        <v>0.2709515332809659</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4862735809734102</v>
+        <v>0.1627578158591566</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3872556000974272</v>
+        <v>0.2198072201079569</v>
       </c>
       <c r="M30" t="n">
-        <v>0.4329212903101338</v>
+        <v>0.1738363070865239</v>
       </c>
       <c r="N30" t="n">
-        <v>0.2663995487025673</v>
+        <v>0.215386470409248</v>
       </c>
       <c r="O30" t="n">
-        <v>0.5047466133086459</v>
+        <v>0.2085478693487703</v>
       </c>
       <c r="P30" t="n">
-        <v>0.3936075078237418</v>
+        <v>0.03839108820914738</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.09193283971457461</v>
-      </c>
-      <c r="R30" t="n">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
@@ -2265,16 +2173,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03490650653839111</v>
+        <v>0.05532770156860352</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002760164180309734</v>
+        <v>0.006808912974195287</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01955286661783854</v>
+        <v>0.02130904197692871</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003027340518492535</v>
+        <v>0.001933048664751045</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2282,42 +2190,39 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H31" t="n">
-        <v>0.15</v>
+        <v>70</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 7, 'min_samples_split': 0.15}</t>
+          <t>{'criterion': 'gini', 'max_depth': 8, 'min_samples_leaf': 70}</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>0.3019953628724513</v>
+        <v>0.2143747679668883</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4910715018168629</v>
+        <v>0.1606169430060529</v>
       </c>
       <c r="L31" t="n">
-        <v>0.366539907067838</v>
+        <v>0.2694458495271117</v>
       </c>
       <c r="M31" t="n">
-        <v>0.3747997326091925</v>
+        <v>0.1862752209683348</v>
       </c>
       <c r="N31" t="n">
-        <v>0.269754417666845</v>
+        <v>0.1831114323345218</v>
       </c>
       <c r="O31" t="n">
-        <v>0.8128869217750212</v>
+        <v>0.2027648427605819</v>
       </c>
       <c r="P31" t="n">
-        <v>0.4361746406347018</v>
+        <v>0.03745866161153749</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.1822276290692197</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32">
@@ -2325,16 +2230,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0232694943745931</v>
+        <v>0.06290254592895508</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002280542685631068</v>
+        <v>0.008625212239443597</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02070343494415283</v>
+        <v>0.02416801452636719</v>
       </c>
       <c r="E32" t="n">
-        <v>0.007939688226603604</v>
+        <v>0.005022928724167199</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2345,39 +2250,36 @@
         <v>8</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 8, 'min_samples_split': 0.8}</t>
+          <t>{'criterion': 'gini', 'max_depth': 8, 'min_samples_leaf': 80}</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.222969666492857</v>
+        <v>0.249363604496544</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.1620735740170465</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.2596094143826363</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.1810292781229822</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.19029108722185</v>
       </c>
       <c r="O32" t="n">
-        <v>0.3890215241204084</v>
+        <v>0.2084733916482118</v>
       </c>
       <c r="P32" t="n">
-        <v>0.240806515802641</v>
+        <v>0.03879077458757809</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.06881470490928498</v>
-      </c>
-      <c r="R32" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
@@ -2385,16 +2287,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02094618479410807</v>
+        <v>0.05765380859375</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003688141780504172</v>
+        <v>0.008249007167509891</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01878090699513753</v>
+        <v>0.02208676338195801</v>
       </c>
       <c r="E33" t="n">
-        <v>0.002840442697459908</v>
+        <v>0.001453906925667415</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2405,39 +2307,36 @@
         <v>8</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 8, 'min_samples_split': 0.9}</t>
+          <t>{'criterion': 'gini', 'max_depth': 8, 'min_samples_leaf': 90}</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>0.1654387287245843</v>
+        <v>0.2001653015928497</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.170440614053242</v>
       </c>
       <c r="L33" t="n">
-        <v>0.2442078658190253</v>
+        <v>0.3407385867302201</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1784404361354873</v>
+        <v>0.1685616602752658</v>
       </c>
       <c r="N33" t="n">
-        <v>0.1996493648355396</v>
+        <v>0.2005770882650874</v>
       </c>
       <c r="O33" t="n">
-        <v>0.8385543437037229</v>
+        <v>0.216096650183333</v>
       </c>
       <c r="P33" t="n">
-        <v>0.3025430244843972</v>
+        <v>0.0638346706999828</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.2409691167435712</v>
-      </c>
-      <c r="R33" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -2445,16 +2344,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.03574220339457194</v>
+        <v>0.05489411354064942</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00677811785238013</v>
+        <v>0.007637913256876802</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01778038342793782</v>
+        <v>0.01940350532531738</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002901554083721851</v>
+        <v>0.001891904563974784</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2465,39 +2364,36 @@
         <v>8</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 8, 'min_samples_split': 0.1}</t>
+          <t>{'criterion': 'gini', 'max_depth': 8, 'min_samples_leaf': 100}</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>0.3182398736182719</v>
+        <v>0.2422771337023295</v>
       </c>
       <c r="K34" t="n">
-        <v>0.3958440240351195</v>
+        <v>0.170430135172291</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3118942541730353</v>
+        <v>0.2922653239774615</v>
       </c>
       <c r="M34" t="n">
-        <v>0.348451008509658</v>
+        <v>0.2129962659027582</v>
       </c>
       <c r="N34" t="n">
-        <v>0.2858172382058469</v>
+        <v>0.170527438704039</v>
       </c>
       <c r="O34" t="n">
-        <v>0.5239525812216632</v>
+        <v>0.2176992594917758</v>
       </c>
       <c r="P34" t="n">
-        <v>0.3640331632939325</v>
+        <v>0.04614290587436565</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.07933281876602903</v>
-      </c>
-      <c r="R34" t="n">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
@@ -2505,16 +2401,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03237644831339518</v>
+        <v>0.04996976852416992</v>
       </c>
       <c r="C35" t="n">
-        <v>0.007446475031639881</v>
+        <v>0.003387503585968385</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01745466391245524</v>
+        <v>0.02233567237854004</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003296474494727558</v>
+        <v>0.002244562077766024</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2525,39 +2421,36 @@
         <v>8</v>
       </c>
       <c r="H35" t="n">
-        <v>0.11</v>
+        <v>110</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 8, 'min_samples_split': 0.11}</t>
+          <t>{'criterion': 'gini', 'max_depth': 8, 'min_samples_leaf': 110}</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>0.2923884246519109</v>
+        <v>0.3181043547619736</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4723543373590579</v>
+        <v>0.1652130466948362</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3302407201469788</v>
+        <v>0.300910652174168</v>
       </c>
       <c r="M35" t="n">
-        <v>0.3325390243545458</v>
+        <v>0.2299110333222019</v>
       </c>
       <c r="N35" t="n">
-        <v>0.2858172382058469</v>
+        <v>0.1732262515487721</v>
       </c>
       <c r="O35" t="n">
-        <v>0.5922528400824745</v>
+        <v>0.2374730677003904</v>
       </c>
       <c r="P35" t="n">
-        <v>0.3842654308001358</v>
+        <v>0.06313807086434456</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.1116140218547088</v>
-      </c>
-      <c r="R35" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36">
@@ -2565,16 +2458,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02965215841929118</v>
+        <v>0.04464120864868164</v>
       </c>
       <c r="C36" t="n">
-        <v>0.007151985261363822</v>
+        <v>0.005872535993629381</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01595858732859294</v>
+        <v>0.02365155220031738</v>
       </c>
       <c r="E36" t="n">
-        <v>0.002230524119170017</v>
+        <v>0.004167501065124262</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2585,39 +2478,36 @@
         <v>8</v>
       </c>
       <c r="H36" t="n">
-        <v>0.12</v>
+        <v>120</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 8, 'min_samples_split': 0.12}</t>
+          <t>{'criterion': 'gini', 'max_depth': 8, 'min_samples_leaf': 120}</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>0.2946854349670048</v>
+        <v>0.2801755584417656</v>
       </c>
       <c r="K36" t="n">
-        <v>0.4229691469475911</v>
+        <v>0.1809514068860421</v>
       </c>
       <c r="L36" t="n">
-        <v>0.4037192776987907</v>
+        <v>0.2705163269714703</v>
       </c>
       <c r="M36" t="n">
-        <v>0.4612194466751247</v>
+        <v>0.2474968778198348</v>
       </c>
       <c r="N36" t="n">
-        <v>0.3054620753071234</v>
+        <v>0.1729144766127059</v>
       </c>
       <c r="O36" t="n">
-        <v>0.5518078889627133</v>
+        <v>0.2304109293463637</v>
       </c>
       <c r="P36" t="n">
-        <v>0.4066438784263913</v>
+        <v>0.04500883758078125</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.08859890954058222</v>
-      </c>
-      <c r="R36" t="n">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37">
@@ -2625,16 +2515,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03187445799509684</v>
+        <v>0.04986071586608887</v>
       </c>
       <c r="C37" t="n">
-        <v>0.005052263357222129</v>
+        <v>0.004438952236767024</v>
       </c>
       <c r="D37" t="n">
-        <v>0.018218994140625</v>
+        <v>0.02221808433532715</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003031197516210726</v>
+        <v>0.003302344132574468</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2645,39 +2535,36 @@
         <v>8</v>
       </c>
       <c r="H37" t="n">
-        <v>0.15</v>
+        <v>130</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 8, 'min_samples_split': 0.15}</t>
+          <t>{'criterion': 'gini', 'max_depth': 8, 'min_samples_leaf': 130}</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>0.3019953628724513</v>
+        <v>0.2094793956188065</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4910715018168629</v>
+        <v>0.170127000064539</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3481873346809154</v>
+        <v>0.2189053037106911</v>
       </c>
       <c r="M37" t="n">
-        <v>0.3456087429459103</v>
+        <v>0.2658570113965565</v>
       </c>
       <c r="N37" t="n">
-        <v>0.2704497888438882</v>
+        <v>0.176902963811893</v>
       </c>
       <c r="O37" t="n">
-        <v>0.8131119866460151</v>
+        <v>0.2082543349204972</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4284041196343405</v>
+        <v>0.03426255793339889</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.185358164607997</v>
-      </c>
-      <c r="R37" t="n">
-        <v>7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
@@ -2685,16 +2572,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02296411991119385</v>
+        <v>0.05989251136779785</v>
       </c>
       <c r="C38" t="n">
-        <v>0.006629133860836659</v>
+        <v>0.01302131223605039</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01588332653045654</v>
+        <v>0.02206759452819824</v>
       </c>
       <c r="E38" t="n">
-        <v>0.002597998890946287</v>
+        <v>0.002695896841134609</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2705,39 +2592,36 @@
         <v>9</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8</v>
+        <v>50</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 9, 'min_samples_split': 0.8}</t>
+          <t>{'criterion': 'gini', 'max_depth': 9, 'min_samples_leaf': 50}</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>0.222969666492857</v>
+        <v>0.2207868774175942</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.1496866475302958</v>
       </c>
       <c r="L38" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.1868622749364708</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.1553194604059918</v>
       </c>
       <c r="N38" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.1760780467326507</v>
       </c>
       <c r="O38" t="n">
-        <v>0.3890215241204084</v>
+        <v>0.1777466614046007</v>
       </c>
       <c r="P38" t="n">
-        <v>0.240806515802641</v>
+        <v>0.02541134629526421</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.06881470490928498</v>
-      </c>
-      <c r="R38" t="n">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
@@ -2745,16 +2629,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0184853474299113</v>
+        <v>0.05324063301086426</v>
       </c>
       <c r="C39" t="n">
-        <v>0.004210587978696217</v>
+        <v>0.004946608945500477</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01620749632517497</v>
+        <v>0.01973280906677246</v>
       </c>
       <c r="E39" t="n">
-        <v>0.002163480932644245</v>
+        <v>0.006299983037797797</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2765,39 +2649,36 @@
         <v>9</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9</v>
+        <v>60</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 9, 'min_samples_split': 0.9}</t>
+          <t>{'criterion': 'gini', 'max_depth': 9, 'min_samples_leaf': 60}</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>0.1654387287245843</v>
+        <v>0.2110681688562276</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.1604570758834734</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2442078658190253</v>
+        <v>0.1921978731895229</v>
       </c>
       <c r="M39" t="n">
-        <v>0.1784404361354873</v>
+        <v>0.1786695439388654</v>
       </c>
       <c r="N39" t="n">
-        <v>0.1996493648355396</v>
+        <v>0.2307872186679301</v>
       </c>
       <c r="O39" t="n">
-        <v>0.8385543437037229</v>
+        <v>0.1946359761072039</v>
       </c>
       <c r="P39" t="n">
-        <v>0.3025430244843972</v>
+        <v>0.02451937119810626</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.2409691167435712</v>
-      </c>
-      <c r="R39" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
@@ -2805,16 +2686,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03389771779378255</v>
+        <v>0.04408965110778808</v>
       </c>
       <c r="C40" t="n">
-        <v>0.004220425800845159</v>
+        <v>0.007155965957030289</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01687395572662354</v>
+        <v>0.02449889183044434</v>
       </c>
       <c r="E40" t="n">
-        <v>0.002925422857170532</v>
+        <v>0.005799972968077813</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2825,39 +2706,36 @@
         <v>9</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1</v>
+        <v>70</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 9, 'min_samples_split': 0.1}</t>
+          <t>{'criterion': 'gini', 'max_depth': 9, 'min_samples_leaf': 70}</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>0.3182398736182719</v>
+        <v>0.17378495469942</v>
       </c>
       <c r="K40" t="n">
-        <v>0.366409432775696</v>
+        <v>0.1722777167716414</v>
       </c>
       <c r="L40" t="n">
-        <v>0.2905898962963321</v>
+        <v>0.2011622863757076</v>
       </c>
       <c r="M40" t="n">
-        <v>0.348451008509658</v>
+        <v>0.2018536171951134</v>
       </c>
       <c r="N40" t="n">
-        <v>0.2858172382058469</v>
+        <v>0.177984791332317</v>
       </c>
       <c r="O40" t="n">
-        <v>0.522159870825363</v>
+        <v>0.1854126732748399</v>
       </c>
       <c r="P40" t="n">
-        <v>0.3552778867051947</v>
+        <v>0.01327598811071131</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.08000129833760469</v>
-      </c>
-      <c r="R40" t="n">
-        <v>61</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
@@ -2865,16 +2743,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.03168916702270508</v>
+        <v>0.04902224540710449</v>
       </c>
       <c r="C41" t="n">
-        <v>0.006284413595248672</v>
+        <v>0.008556015027488064</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01828849315643311</v>
+        <v>0.02186455726623535</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003351184385138172</v>
+        <v>0.003161850489236038</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2885,39 +2763,36 @@
         <v>9</v>
       </c>
       <c r="H41" t="n">
-        <v>0.11</v>
+        <v>80</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 9, 'min_samples_split': 0.11}</t>
+          <t>{'criterion': 'gini', 'max_depth': 9, 'min_samples_leaf': 80}</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>0.2923884246519109</v>
+        <v>0.1946147866787956</v>
       </c>
       <c r="K41" t="n">
-        <v>0.4723543373590579</v>
+        <v>0.1807048968751339</v>
       </c>
       <c r="L41" t="n">
-        <v>0.349025065289637</v>
+        <v>0.2111592522684622</v>
       </c>
       <c r="M41" t="n">
-        <v>0.3325390243545458</v>
+        <v>0.2154829889216656</v>
       </c>
       <c r="N41" t="n">
-        <v>0.2858172382058469</v>
+        <v>0.1904493835510101</v>
       </c>
       <c r="O41" t="n">
-        <v>0.5466923795648599</v>
+        <v>0.1984822616590135</v>
       </c>
       <c r="P41" t="n">
-        <v>0.3798027449043097</v>
+        <v>0.0130019230150844</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.09667265307923356</v>
-      </c>
-      <c r="R41" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42">
@@ -2925,16 +2800,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0304257869720459</v>
+        <v>0.04520397186279297</v>
       </c>
       <c r="C42" t="n">
-        <v>0.004014502581406452</v>
+        <v>0.008820469749103815</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01695601145426432</v>
+        <v>0.01987662315368652</v>
       </c>
       <c r="E42" t="n">
-        <v>0.00269921293332597</v>
+        <v>0.002515906931630844</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2945,39 +2820,36 @@
         <v>9</v>
       </c>
       <c r="H42" t="n">
-        <v>0.12</v>
+        <v>90</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 9, 'min_samples_split': 0.12}</t>
+          <t>{'criterion': 'gini', 'max_depth': 9, 'min_samples_leaf': 90}</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>0.2946854349670048</v>
+        <v>0.178392198449584</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4229691469475911</v>
+        <v>0.1448396992345071</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3982079085720297</v>
+        <v>0.256996226755627</v>
       </c>
       <c r="M42" t="n">
-        <v>0.4612194466751247</v>
+        <v>0.2541505349736433</v>
       </c>
       <c r="N42" t="n">
-        <v>0.3054620753071234</v>
+        <v>0.1835526829674989</v>
       </c>
       <c r="O42" t="n">
-        <v>0.5538103479591848</v>
+        <v>0.2035862684761721</v>
       </c>
       <c r="P42" t="n">
-        <v>0.4060590600713431</v>
+        <v>0.04448958035393027</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.08920439138420287</v>
-      </c>
-      <c r="R42" t="n">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43">
@@ -2985,16 +2857,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02958532174428304</v>
+        <v>0.06056356430053711</v>
       </c>
       <c r="C43" t="n">
-        <v>0.003717096285249796</v>
+        <v>0.02038980399052069</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01728705565134684</v>
+        <v>0.0253018856048584</v>
       </c>
       <c r="E43" t="n">
-        <v>0.002206264020768627</v>
+        <v>0.00778299057556631</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -3005,39 +2877,36 @@
         <v>9</v>
       </c>
       <c r="H43" t="n">
-        <v>0.15</v>
+        <v>100</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 9, 'min_samples_split': 0.15}</t>
+          <t>{'criterion': 'gini', 'max_depth': 9, 'min_samples_leaf': 100}</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>0.3019953628724513</v>
+        <v>0.1841832603070424</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4910715018168629</v>
+        <v>0.1550778059782573</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3481873346809154</v>
+        <v>0.2510200485376611</v>
       </c>
       <c r="M43" t="n">
-        <v>0.3456087429459103</v>
+        <v>0.3080559411599267</v>
       </c>
       <c r="N43" t="n">
-        <v>0.2704497888438882</v>
+        <v>0.1614572445748327</v>
       </c>
       <c r="O43" t="n">
-        <v>0.8131119866460151</v>
+        <v>0.211958860111544</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4284041196343405</v>
+        <v>0.05885197849335497</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.185358164607997</v>
-      </c>
-      <c r="R43" t="n">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
@@ -3045,16 +2914,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02110878626505534</v>
+        <v>0.04678850173950196</v>
       </c>
       <c r="C44" t="n">
-        <v>0.003224604462267545</v>
+        <v>0.009150243152589338</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01745327313741048</v>
+        <v>0.02305965423583984</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002685009118778607</v>
+        <v>0.003557289918959429</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3062,42 +2931,39 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8</v>
+        <v>110</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_split': 0.8}</t>
+          <t>{'criterion': 'gini', 'max_depth': 9, 'min_samples_leaf': 110}</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>0.222969666492857</v>
+        <v>0.2145026933363312</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.1682090560679328</v>
       </c>
       <c r="L44" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.2749019966864029</v>
       </c>
       <c r="M44" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.2520659230936418</v>
       </c>
       <c r="N44" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.1569211665653868</v>
       </c>
       <c r="O44" t="n">
-        <v>0.3890215241204084</v>
+        <v>0.2133201671499391</v>
       </c>
       <c r="P44" t="n">
-        <v>0.240806515802641</v>
+        <v>0.04584934745637715</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.06881470490928498</v>
-      </c>
-      <c r="R44" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
@@ -3105,16 +2971,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01945189634958903</v>
+        <v>0.05938005447387695</v>
       </c>
       <c r="C45" t="n">
-        <v>0.005015943569869219</v>
+        <v>0.02005394131684105</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01894537607828776</v>
+        <v>0.02518911361694336</v>
       </c>
       <c r="E45" t="n">
-        <v>0.004953381239140259</v>
+        <v>0.004699858646668133</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3122,42 +2988,39 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9</v>
+        <v>120</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_split': 0.9}</t>
+          <t>{'criterion': 'gini', 'max_depth': 9, 'min_samples_leaf': 120}</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>0.1654387287245843</v>
+        <v>0.2121910413276165</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.1787676737240981</v>
       </c>
       <c r="L45" t="n">
-        <v>0.2442078658190253</v>
+        <v>0.2397338967229519</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1784404361354873</v>
+        <v>0.2572872354096206</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1996493648355396</v>
+        <v>0.1520668942559407</v>
       </c>
       <c r="O45" t="n">
-        <v>0.8385543437037229</v>
+        <v>0.2080093482880455</v>
       </c>
       <c r="P45" t="n">
-        <v>0.3025430244843972</v>
+        <v>0.03856650718870087</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.2409691167435712</v>
-      </c>
-      <c r="R45" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46">
@@ -3165,16 +3028,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03108473618825277</v>
+        <v>0.05866823196411133</v>
       </c>
       <c r="C46" t="n">
-        <v>0.007560058355123648</v>
+        <v>0.01509340372630166</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01978015899658203</v>
+        <v>0.02369108200073242</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003879459723407491</v>
+        <v>0.00396499938922979</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3182,42 +3045,39 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1</v>
+        <v>130</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_split': 0.1}</t>
+          <t>{'criterion': 'gini', 'max_depth': 9, 'min_samples_leaf': 130}</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>0.3182398736182719</v>
+        <v>0.2582214064219853</v>
       </c>
       <c r="K46" t="n">
-        <v>0.366409432775696</v>
+        <v>0.1460095998316439</v>
       </c>
       <c r="L46" t="n">
-        <v>0.2804292779139062</v>
+        <v>0.2668051673917189</v>
       </c>
       <c r="M46" t="n">
-        <v>0.348451008509658</v>
+        <v>0.2739254138986167</v>
       </c>
       <c r="N46" t="n">
-        <v>0.2858172382058469</v>
+        <v>0.1595717431558407</v>
       </c>
       <c r="O46" t="n">
-        <v>0.522159870825363</v>
+        <v>0.2209066661399611</v>
       </c>
       <c r="P46" t="n">
-        <v>0.3535844503081236</v>
+        <v>0.0560028449142165</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.08144713846833754</v>
-      </c>
-      <c r="R46" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47">
@@ -3225,16 +3085,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02676403522491455</v>
+        <v>0.05368571281433106</v>
       </c>
       <c r="C47" t="n">
-        <v>0.002028196676187932</v>
+        <v>0.008587834877943687</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01944553852081299</v>
+        <v>0.02268037796020508</v>
       </c>
       <c r="E47" t="n">
-        <v>0.00572489114519807</v>
+        <v>0.005113610765544421</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3245,39 +3105,36 @@
         <v>10</v>
       </c>
       <c r="H47" t="n">
-        <v>0.11</v>
+        <v>50</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_split': 0.11}</t>
+          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_leaf': 50}</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>0.2923884246519109</v>
+        <v>0.1957195952896675</v>
       </c>
       <c r="K47" t="n">
-        <v>0.4723543373590579</v>
+        <v>0.1206275899592812</v>
       </c>
       <c r="L47" t="n">
-        <v>0.349025065289637</v>
+        <v>0.2321642911853228</v>
       </c>
       <c r="M47" t="n">
-        <v>0.3325390243545458</v>
+        <v>0.1598571105871052</v>
       </c>
       <c r="N47" t="n">
-        <v>0.2858172382058469</v>
+        <v>0.1810911495536148</v>
       </c>
       <c r="O47" t="n">
-        <v>0.5466923795648599</v>
+        <v>0.1778919473149983</v>
       </c>
       <c r="P47" t="n">
-        <v>0.3798027449043097</v>
+        <v>0.03708910674474668</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.09667265307923356</v>
-      </c>
-      <c r="R47" t="n">
-        <v>44</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
@@ -3285,16 +3142,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02809381484985352</v>
+        <v>0.05535273551940918</v>
       </c>
       <c r="C48" t="n">
-        <v>0.002471601147866797</v>
+        <v>0.01263203961331143</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01695247491200765</v>
+        <v>0.02248125076293945</v>
       </c>
       <c r="E48" t="n">
-        <v>0.00310003475606009</v>
+        <v>0.005075435955567737</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3305,39 +3162,36 @@
         <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>0.12</v>
+        <v>60</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_split': 0.12}</t>
+          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_leaf': 60}</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0.2946854349670048</v>
+        <v>0.2126058681682736</v>
       </c>
       <c r="K48" t="n">
-        <v>0.4229691469475911</v>
+        <v>0.1452370199525223</v>
       </c>
       <c r="L48" t="n">
-        <v>0.3982079085720297</v>
+        <v>0.2161345226168755</v>
       </c>
       <c r="M48" t="n">
-        <v>0.4612194466751247</v>
+        <v>0.217226687331925</v>
       </c>
       <c r="N48" t="n">
-        <v>0.3054620753071234</v>
+        <v>0.1987713292413591</v>
       </c>
       <c r="O48" t="n">
-        <v>0.5538103479591848</v>
+        <v>0.1979950854621911</v>
       </c>
       <c r="P48" t="n">
-        <v>0.4060590600713431</v>
+        <v>0.0271896476357317</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.08920439138420287</v>
-      </c>
-      <c r="R48" t="n">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49">
@@ -3345,16 +3199,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02942089239756266</v>
+        <v>0.05676484107971191</v>
       </c>
       <c r="C49" t="n">
-        <v>0.004413262913843639</v>
+        <v>0.004969839752361788</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01828257242838542</v>
+        <v>0.02208466529846191</v>
       </c>
       <c r="E49" t="n">
-        <v>0.002418878408189354</v>
+        <v>0.003370560511069413</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3365,39 +3219,36 @@
         <v>10</v>
       </c>
       <c r="H49" t="n">
-        <v>0.15</v>
+        <v>70</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_split': 0.15}</t>
+          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_leaf': 70}</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>0.3019953628724513</v>
+        <v>0.2177554053396009</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4910715018168629</v>
+        <v>0.1456664736330683</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3481873346809154</v>
+        <v>0.2019298956272677</v>
       </c>
       <c r="M49" t="n">
-        <v>0.3456087429459103</v>
+        <v>0.2466472726281921</v>
       </c>
       <c r="N49" t="n">
-        <v>0.2704497888438882</v>
+        <v>0.1608346482669102</v>
       </c>
       <c r="O49" t="n">
-        <v>0.8131119866460151</v>
+        <v>0.1945667390990078</v>
       </c>
       <c r="P49" t="n">
-        <v>0.4284041196343405</v>
+        <v>0.03696864131478461</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.185358164607997</v>
-      </c>
-      <c r="R49" t="n">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
@@ -3405,16 +3256,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02393515904744466</v>
+        <v>0.05583071708679199</v>
       </c>
       <c r="C50" t="n">
-        <v>0.004817054177291166</v>
+        <v>0.008502327707816974</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02077770233154297</v>
+        <v>0.0259462833404541</v>
       </c>
       <c r="E50" t="n">
-        <v>0.005352373065091879</v>
+        <v>0.005143397983992573</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3422,42 +3273,39 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 11, 'min_samples_split': 0.8}</t>
+          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_leaf': 80}</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>0.222969666492857</v>
+        <v>0.2269818394250084</v>
       </c>
       <c r="K50" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.1577749552162435</v>
       </c>
       <c r="L50" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.2813638353508068</v>
       </c>
       <c r="M50" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.3037827977173309</v>
       </c>
       <c r="N50" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.2108934046830831</v>
       </c>
       <c r="O50" t="n">
-        <v>0.3890215241204084</v>
+        <v>0.2361593664784945</v>
       </c>
       <c r="P50" t="n">
-        <v>0.240806515802641</v>
+        <v>0.05192895958082702</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.06881470490928498</v>
-      </c>
-      <c r="R50" t="n">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
@@ -3465,16 +3313,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01795069376627604</v>
+        <v>0.05937032699584961</v>
       </c>
       <c r="C51" t="n">
-        <v>0.00340532839960592</v>
+        <v>0.0129779491449104</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01712111632029216</v>
+        <v>0.02552132606506348</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002602477347450219</v>
+        <v>0.004621113078777868</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3482,42 +3330,39 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 11, 'min_samples_split': 0.9}</t>
+          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_leaf': 90}</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>0.1654387287245843</v>
+        <v>0.2836452982663115</v>
       </c>
       <c r="K51" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.14394175554751</v>
       </c>
       <c r="L51" t="n">
-        <v>0.2442078658190253</v>
+        <v>0.2939517600214726</v>
       </c>
       <c r="M51" t="n">
-        <v>0.1784404361354873</v>
+        <v>0.2556570999319547</v>
       </c>
       <c r="N51" t="n">
-        <v>0.1996493648355396</v>
+        <v>0.1839306228924271</v>
       </c>
       <c r="O51" t="n">
-        <v>0.8385543437037229</v>
+        <v>0.2322253073319352</v>
       </c>
       <c r="P51" t="n">
-        <v>0.3025430244843972</v>
+        <v>0.05853132732914967</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.2409691167435712</v>
-      </c>
-      <c r="R51" t="n">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52">
@@ -3525,16 +3370,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.03773593902587891</v>
+        <v>0.05384783744812012</v>
       </c>
       <c r="C52" t="n">
-        <v>0.00623994524095004</v>
+        <v>0.01423699101765456</v>
       </c>
       <c r="D52" t="n">
-        <v>0.02177055676778157</v>
+        <v>0.02152938842773438</v>
       </c>
       <c r="E52" t="n">
-        <v>0.007037107027118481</v>
+        <v>0.00277422567950066</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3542,42 +3387,39 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 11, 'min_samples_split': 0.1}</t>
+          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_leaf': 100}</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>0.3182398736182719</v>
+        <v>0.212757306761009</v>
       </c>
       <c r="K52" t="n">
-        <v>0.366409432775696</v>
+        <v>0.1364978830953243</v>
       </c>
       <c r="L52" t="n">
-        <v>0.2804292779139062</v>
+        <v>0.3596317355423175</v>
       </c>
       <c r="M52" t="n">
-        <v>0.348451008509658</v>
+        <v>0.2423714314634033</v>
       </c>
       <c r="N52" t="n">
-        <v>0.2858172382058469</v>
+        <v>0.1453556330587189</v>
       </c>
       <c r="O52" t="n">
-        <v>0.522159870825363</v>
+        <v>0.2193227979841546</v>
       </c>
       <c r="P52" t="n">
-        <v>0.3535844503081236</v>
+        <v>0.08073667215387441</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.08144713846833754</v>
-      </c>
-      <c r="R52" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53">
@@ -3585,16 +3427,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.03157742818196615</v>
+        <v>0.04805755615234375</v>
       </c>
       <c r="C53" t="n">
-        <v>0.003934970022399875</v>
+        <v>0.007478905905846813</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01845224698384603</v>
+        <v>0.02245621681213379</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002806123865654959</v>
+        <v>0.003093636098736351</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3602,42 +3444,39 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H53" t="n">
-        <v>0.11</v>
+        <v>110</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 11, 'min_samples_split': 0.11}</t>
+          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_leaf': 110}</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>0.2923884246519109</v>
+        <v>0.2715190923987194</v>
       </c>
       <c r="K53" t="n">
-        <v>0.4723543373590579</v>
+        <v>0.1407375537039826</v>
       </c>
       <c r="L53" t="n">
-        <v>0.349025065289637</v>
+        <v>0.2816236860514946</v>
       </c>
       <c r="M53" t="n">
-        <v>0.3325390243545458</v>
+        <v>0.2915053960164756</v>
       </c>
       <c r="N53" t="n">
-        <v>0.2858172382058469</v>
+        <v>0.1522881795312113</v>
       </c>
       <c r="O53" t="n">
-        <v>0.5466923795648599</v>
+        <v>0.2275347815403767</v>
       </c>
       <c r="P53" t="n">
-        <v>0.3798027449043097</v>
+        <v>0.06655565878774615</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.09667265307923356</v>
-      </c>
-      <c r="R53" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54">
@@ -3645,16 +3484,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03108235200246175</v>
+        <v>0.05181493759155274</v>
       </c>
       <c r="C54" t="n">
-        <v>0.004728326660700032</v>
+        <v>0.01671074857492451</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01729150613149007</v>
+        <v>0.01970620155334473</v>
       </c>
       <c r="E54" t="n">
-        <v>0.002203660797004894</v>
+        <v>0.003743982182974778</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3662,42 +3501,39 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H54" t="n">
-        <v>0.12</v>
+        <v>120</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 11, 'min_samples_split': 0.12}</t>
+          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_leaf': 120}</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>0.2946854349670048</v>
+        <v>0.2430494339761363</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4229691469475911</v>
+        <v>0.1457322973742929</v>
       </c>
       <c r="L54" t="n">
-        <v>0.3982079085720297</v>
+        <v>0.2447872504036617</v>
       </c>
       <c r="M54" t="n">
-        <v>0.4612194466751247</v>
+        <v>0.2558877871673135</v>
       </c>
       <c r="N54" t="n">
-        <v>0.3054620753071234</v>
+        <v>0.1475584421529839</v>
       </c>
       <c r="O54" t="n">
-        <v>0.5538103479591848</v>
+        <v>0.2074030422148777</v>
       </c>
       <c r="P54" t="n">
-        <v>0.4060590600713431</v>
+        <v>0.04980697076988871</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.08920439138420287</v>
-      </c>
-      <c r="R54" t="n">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55">
@@ -3705,16 +3541,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.03358026345570882</v>
+        <v>0.045245361328125</v>
       </c>
       <c r="C55" t="n">
-        <v>0.00741448946669536</v>
+        <v>0.006012073752729312</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0169522762298584</v>
+        <v>0.02607769966125488</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00325823814159478</v>
+        <v>0.006722218191479046</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3722,42 +3558,39 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H55" t="n">
-        <v>0.15</v>
+        <v>130</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 11, 'min_samples_split': 0.15}</t>
+          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_leaf': 130}</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>0.3019953628724513</v>
+        <v>0.2024967400923204</v>
       </c>
       <c r="K55" t="n">
-        <v>0.4910715018168629</v>
+        <v>0.1586289484903718</v>
       </c>
       <c r="L55" t="n">
-        <v>0.3481873346809154</v>
+        <v>0.2908541187569037</v>
       </c>
       <c r="M55" t="n">
-        <v>0.3456087429459103</v>
+        <v>0.2581314110380313</v>
       </c>
       <c r="N55" t="n">
-        <v>0.2704497888438882</v>
+        <v>0.1771289247605148</v>
       </c>
       <c r="O55" t="n">
-        <v>0.8131119866460151</v>
+        <v>0.2174480286276284</v>
       </c>
       <c r="P55" t="n">
-        <v>0.4284041196343405</v>
+        <v>0.04970401799879865</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.185358164607997</v>
-      </c>
-      <c r="R55" t="n">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
@@ -3765,59 +3598,56 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01724318663279216</v>
+        <v>0.041748046875</v>
       </c>
       <c r="C56" t="n">
-        <v>0.002394552701198176</v>
+        <v>0.00946967698632334</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01961390177408854</v>
+        <v>0.02368183135986328</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003891459080892833</v>
+        <v>0.003794887411990276</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>gini</t>
+          <t>entropy</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8</v>
+        <v>50</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 12, 'min_samples_split': 0.8}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_leaf': 50}</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>0.222969666492857</v>
+        <v>0.3484858460901754</v>
       </c>
       <c r="K56" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.2189125952618065</v>
       </c>
       <c r="L56" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.2654523346497552</v>
       </c>
       <c r="M56" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.2980425934793188</v>
       </c>
       <c r="N56" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.2472122508944168</v>
       </c>
       <c r="O56" t="n">
-        <v>0.3890215241204084</v>
+        <v>0.2756211240750945</v>
       </c>
       <c r="P56" t="n">
-        <v>0.240806515802641</v>
+        <v>0.04458321567253717</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.06881470490928498</v>
-      </c>
-      <c r="R56" t="n">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -3825,59 +3655,56 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01878090699513753</v>
+        <v>0.0399139404296875</v>
       </c>
       <c r="C57" t="n">
-        <v>0.007270379074024468</v>
+        <v>0.01017030413678175</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01953415075937907</v>
+        <v>0.02459979057312012</v>
       </c>
       <c r="E57" t="n">
-        <v>0.004242293516441372</v>
+        <v>0.00233978745055898</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>gini</t>
+          <t>entropy</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9</v>
+        <v>60</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 12, 'min_samples_split': 0.9}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_leaf': 60}</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>0.1654387287245843</v>
+        <v>0.2719779643324588</v>
       </c>
       <c r="K57" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.2202295878385434</v>
       </c>
       <c r="L57" t="n">
-        <v>0.2442078658190253</v>
+        <v>0.2833500312184625</v>
       </c>
       <c r="M57" t="n">
-        <v>0.1784404361354873</v>
+        <v>0.2794953596800517</v>
       </c>
       <c r="N57" t="n">
-        <v>0.1996493648355396</v>
+        <v>0.2096873251157169</v>
       </c>
       <c r="O57" t="n">
-        <v>0.8385543437037229</v>
+        <v>0.2529480536370466</v>
       </c>
       <c r="P57" t="n">
-        <v>0.3025430244843972</v>
+        <v>0.03141071739544089</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.2409691167435712</v>
-      </c>
-      <c r="R57" t="n">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58">
@@ -3885,59 +3712,56 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0308456023534139</v>
+        <v>0.03975672721862793</v>
       </c>
       <c r="C58" t="n">
-        <v>0.006300711965860166</v>
+        <v>0.008518364712504018</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01560016473134359</v>
+        <v>0.02242956161499023</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001558216949196136</v>
+        <v>0.002930407776276218</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>gini</t>
+          <t>entropy</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1</v>
+        <v>70</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 12, 'min_samples_split': 0.1}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_leaf': 70}</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>0.3182398736182719</v>
+        <v>0.273572288232097</v>
       </c>
       <c r="K58" t="n">
-        <v>0.366409432775696</v>
+        <v>0.2169334558519755</v>
       </c>
       <c r="L58" t="n">
-        <v>0.2804292779139062</v>
+        <v>0.3097602492706102</v>
       </c>
       <c r="M58" t="n">
-        <v>0.348451008509658</v>
+        <v>0.2794953596800517</v>
       </c>
       <c r="N58" t="n">
-        <v>0.2858172382058469</v>
+        <v>0.2774994425396227</v>
       </c>
       <c r="O58" t="n">
-        <v>0.522159870825363</v>
+        <v>0.2714521591148714</v>
       </c>
       <c r="P58" t="n">
-        <v>0.3535844503081236</v>
+        <v>0.03015147239015902</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.08144713846833754</v>
-      </c>
-      <c r="R58" t="n">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -3945,59 +3769,56 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0336838165918986</v>
+        <v>0.04218907356262207</v>
       </c>
       <c r="C59" t="n">
-        <v>0.00860503024428797</v>
+        <v>0.009652116258840571</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01611904303232829</v>
+        <v>0.0192021369934082</v>
       </c>
       <c r="E59" t="n">
-        <v>0.003228593226935644</v>
+        <v>0.001655447234761902</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>gini</t>
+          <t>entropy</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H59" t="n">
-        <v>0.11</v>
+        <v>80</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 12, 'min_samples_split': 0.11}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_leaf': 80}</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>0.2923884246519109</v>
+        <v>0.274539965765516</v>
       </c>
       <c r="K59" t="n">
-        <v>0.4723543373590579</v>
+        <v>0.2169334558519755</v>
       </c>
       <c r="L59" t="n">
-        <v>0.349025065289637</v>
+        <v>0.2814787133377734</v>
       </c>
       <c r="M59" t="n">
-        <v>0.3325390243545458</v>
+        <v>0.3075079139554335</v>
       </c>
       <c r="N59" t="n">
-        <v>0.2858172382058469</v>
+        <v>0.1954880327370156</v>
       </c>
       <c r="O59" t="n">
-        <v>0.5466923795648599</v>
+        <v>0.2551896163295428</v>
       </c>
       <c r="P59" t="n">
-        <v>0.3798027449043097</v>
+        <v>0.04202515867718908</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.09667265307923356</v>
-      </c>
-      <c r="R59" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
@@ -4005,59 +3826,56 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.03008703390757243</v>
+        <v>0.0477302074432373</v>
       </c>
       <c r="C60" t="n">
-        <v>0.006078722794364842</v>
+        <v>0.00645327044567226</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01545925935109456</v>
+        <v>0.02102084159851074</v>
       </c>
       <c r="E60" t="n">
-        <v>0.002867158107949319</v>
+        <v>0.004654189901382067</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>gini</t>
+          <t>entropy</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H60" t="n">
-        <v>0.12</v>
+        <v>90</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 12, 'min_samples_split': 0.12}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_leaf': 90}</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>0.2946854349670048</v>
+        <v>0.2421437828340876</v>
       </c>
       <c r="K60" t="n">
-        <v>0.4229691469475911</v>
+        <v>0.2262282231873409</v>
       </c>
       <c r="L60" t="n">
-        <v>0.3982079085720297</v>
+        <v>0.3433797652304535</v>
       </c>
       <c r="M60" t="n">
-        <v>0.4612194466751247</v>
+        <v>0.2596258291768298</v>
       </c>
       <c r="N60" t="n">
-        <v>0.3054620753071234</v>
+        <v>0.2135887013502115</v>
       </c>
       <c r="O60" t="n">
-        <v>0.5538103479591848</v>
+        <v>0.2569932603557846</v>
       </c>
       <c r="P60" t="n">
-        <v>0.4060590600713431</v>
+        <v>0.04587048916279424</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.08920439138420287</v>
-      </c>
-      <c r="R60" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
@@ -4065,59 +3883,56 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.03108390172322591</v>
+        <v>0.04219403266906738</v>
       </c>
       <c r="C61" t="n">
-        <v>0.006919468689788761</v>
+        <v>0.01049140453203279</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01911445458730062</v>
+        <v>0.0195622444152832</v>
       </c>
       <c r="E61" t="n">
-        <v>0.003749144372724742</v>
+        <v>0.001563809113774972</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>gini</t>
+          <t>entropy</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H61" t="n">
-        <v>0.15</v>
+        <v>100</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 12, 'min_samples_split': 0.15}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_leaf': 100}</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>0.3019953628724513</v>
+        <v>0.2773830713014986</v>
       </c>
       <c r="K61" t="n">
-        <v>0.4910715018168629</v>
+        <v>0.2031576942452667</v>
       </c>
       <c r="L61" t="n">
-        <v>0.3481873346809154</v>
+        <v>0.3418355693702281</v>
       </c>
       <c r="M61" t="n">
-        <v>0.3456087429459103</v>
+        <v>0.3057124993173311</v>
       </c>
       <c r="N61" t="n">
-        <v>0.2704497888438882</v>
+        <v>0.2135887013502115</v>
       </c>
       <c r="O61" t="n">
-        <v>0.8131119866460151</v>
+        <v>0.2683355071169072</v>
       </c>
       <c r="P61" t="n">
-        <v>0.4284041196343405</v>
+        <v>0.05315358341119401</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.185358164607997</v>
-      </c>
-      <c r="R61" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -4125,16 +3940,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02443313598632812</v>
+        <v>0.03760013580322265</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01315383121079767</v>
+        <v>0.003151947194883373</v>
       </c>
       <c r="D62" t="n">
-        <v>0.01545476913452148</v>
+        <v>0.01872725486755371</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0009549579425679623</v>
+        <v>0.001346978053099141</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -4142,42 +3957,39 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8</v>
+        <v>110</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 3, 'min_samples_split': 0.8}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_leaf': 110}</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>0.222969666492857</v>
+        <v>0.2186902596455774</v>
       </c>
       <c r="K62" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.1979496865028767</v>
       </c>
       <c r="L62" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.2675312634891088</v>
       </c>
       <c r="M62" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.261787016197626</v>
       </c>
       <c r="N62" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.2135887013502115</v>
       </c>
       <c r="O62" t="n">
-        <v>0.3780863816331688</v>
+        <v>0.2319093854370801</v>
       </c>
       <c r="P62" t="n">
-        <v>0.2389839920547677</v>
+        <v>0.02765951886646355</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.06489854259464575</v>
-      </c>
-      <c r="R62" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63">
@@ -4185,16 +3997,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01645096143086751</v>
+        <v>0.03359770774841309</v>
       </c>
       <c r="C63" t="n">
-        <v>0.003187830256368085</v>
+        <v>0.005295104823100943</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01811869939168294</v>
+        <v>0.02286491394042969</v>
       </c>
       <c r="E63" t="n">
-        <v>0.005856387612524885</v>
+        <v>0.007296128778981005</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -4202,42 +4014,39 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9</v>
+        <v>120</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 3, 'min_samples_split': 0.9}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_leaf': 120}</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>0.1654387287245843</v>
+        <v>0.237518001690997</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.206340639105873</v>
       </c>
       <c r="L63" t="n">
-        <v>0.2442078658190253</v>
+        <v>0.3166672368069307</v>
       </c>
       <c r="M63" t="n">
-        <v>0.1784404361354873</v>
+        <v>0.341509180568658</v>
       </c>
       <c r="N63" t="n">
-        <v>0.1996493648355396</v>
+        <v>0.2301009302885832</v>
       </c>
       <c r="O63" t="n">
-        <v>0.3780863816331688</v>
+        <v>0.2664271976922084</v>
       </c>
       <c r="P63" t="n">
-        <v>0.2257983641393048</v>
+        <v>0.05277707745332923</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.07240729529799267</v>
-      </c>
-      <c r="R63" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
@@ -4245,16 +4054,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.02144408226013184</v>
+        <v>0.03557424545288086</v>
       </c>
       <c r="C64" t="n">
-        <v>0.005042664964031443</v>
+        <v>0.004835475582367603</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01888604958852132</v>
+        <v>0.02621374130249023</v>
       </c>
       <c r="E64" t="n">
-        <v>0.005088566945136493</v>
+        <v>0.004986335658480489</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -4262,42 +4071,39 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1</v>
+        <v>130</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 3, 'min_samples_split': 0.1}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_leaf': 130}</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>0.222969666492857</v>
+        <v>0.2306911241229879</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2900161564997622</v>
+        <v>0.2218684502710715</v>
       </c>
       <c r="L64" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.3270323437546293</v>
       </c>
       <c r="M64" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.3555740034724069</v>
       </c>
       <c r="N64" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.1696643636613169</v>
       </c>
       <c r="O64" t="n">
-        <v>0.4001151186122021</v>
+        <v>0.2609660570564825</v>
       </c>
       <c r="P64" t="n">
-        <v>0.2594969063532297</v>
+        <v>0.06942133879495438</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.07007452618799268</v>
-      </c>
-      <c r="R64" t="n">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
@@ -4305,16 +4111,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01878293355305989</v>
+        <v>0.04232316017150879</v>
       </c>
       <c r="C65" t="n">
-        <v>0.002398734019035522</v>
+        <v>0.006666925617172385</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01855472723642985</v>
+        <v>0.02215209007263184</v>
       </c>
       <c r="E65" t="n">
-        <v>0.006522919693697479</v>
+        <v>0.001395944967516086</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -4322,42 +4128,39 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H65" t="n">
-        <v>0.11</v>
+        <v>50</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 3, 'min_samples_split': 0.11}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 6, 'min_samples_leaf': 50}</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>0.222969666492857</v>
+        <v>0.2700792396703333</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2900161564997622</v>
+        <v>0.2353228504464538</v>
       </c>
       <c r="L65" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.2168228758120562</v>
       </c>
       <c r="M65" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.281928793491831</v>
       </c>
       <c r="N65" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.2570227313269614</v>
       </c>
       <c r="O65" t="n">
-        <v>0.4001151186122021</v>
+        <v>0.2522352981495272</v>
       </c>
       <c r="P65" t="n">
-        <v>0.2594969063532297</v>
+        <v>0.02350787091246831</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.07007452618799268</v>
-      </c>
-      <c r="R65" t="n">
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
@@ -4365,16 +4168,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.02807867527008057</v>
+        <v>0.03909778594970703</v>
       </c>
       <c r="C66" t="n">
-        <v>0.006978302091592625</v>
+        <v>0.003702315241297852</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01754422982533773</v>
+        <v>0.02632412910461426</v>
       </c>
       <c r="E66" t="n">
-        <v>0.003407270467329998</v>
+        <v>0.003732645080787606</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -4382,42 +4185,39 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H66" t="n">
-        <v>0.12</v>
+        <v>60</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 3, 'min_samples_split': 0.12}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 6, 'min_samples_leaf': 60}</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>0.222969666492857</v>
+        <v>0.1882766434011735</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2900161564997622</v>
+        <v>0.2439432351328584</v>
       </c>
       <c r="L66" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.2414375749492472</v>
       </c>
       <c r="M66" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.2403253344020099</v>
       </c>
       <c r="N66" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.2844728004046439</v>
       </c>
       <c r="O66" t="n">
-        <v>0.4001151186122021</v>
+        <v>0.2396911176579866</v>
       </c>
       <c r="P66" t="n">
-        <v>0.2594969063532297</v>
+        <v>0.03056265734420181</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.07007452618799268</v>
-      </c>
-      <c r="R66" t="n">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67">
@@ -4425,16 +4225,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02498682339986165</v>
+        <v>0.03793363571166992</v>
       </c>
       <c r="C67" t="n">
-        <v>0.004584195041950978</v>
+        <v>0.007557167040784866</v>
       </c>
       <c r="D67" t="n">
-        <v>0.01638142267862956</v>
+        <v>0.01841225624084473</v>
       </c>
       <c r="E67" t="n">
-        <v>0.00199806012135968</v>
+        <v>0.001130290072460505</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -4442,42 +4242,39 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H67" t="n">
-        <v>0.15</v>
+        <v>70</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 3, 'min_samples_split': 0.15}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 6, 'min_samples_leaf': 70}</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>0.222969666492857</v>
+        <v>0.2052301147473875</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2900161564997622</v>
+        <v>0.2416286198855325</v>
       </c>
       <c r="L67" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.2297609945053109</v>
       </c>
       <c r="M67" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.2110782695639487</v>
       </c>
       <c r="N67" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.2040293327598199</v>
       </c>
       <c r="O67" t="n">
-        <v>0.4001151186122021</v>
+        <v>0.2183454662923999</v>
       </c>
       <c r="P67" t="n">
-        <v>0.2594969063532297</v>
+        <v>0.01484719367007182</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.07007452618799268</v>
-      </c>
-      <c r="R67" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
@@ -4485,16 +4282,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.02061092853546143</v>
+        <v>0.04368457794189453</v>
       </c>
       <c r="C68" t="n">
-        <v>0.00348344409349861</v>
+        <v>0.004925496193330756</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01761929194132487</v>
+        <v>0.02653908729553223</v>
       </c>
       <c r="E68" t="n">
-        <v>0.002353759198647332</v>
+        <v>0.005379607141929746</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -4502,42 +4299,39 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H68" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 4, 'min_samples_split': 0.8}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 6, 'min_samples_leaf': 80}</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>0.222969666492857</v>
+        <v>0.2083313319147056</v>
       </c>
       <c r="K68" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.2479154008636411</v>
       </c>
       <c r="L68" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.276126575402752</v>
       </c>
       <c r="M68" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.2587251454855655</v>
       </c>
       <c r="N68" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.2091838989215632</v>
       </c>
       <c r="O68" t="n">
-        <v>0.3780863816331688</v>
+        <v>0.2400564705176455</v>
       </c>
       <c r="P68" t="n">
-        <v>0.2389839920547677</v>
+        <v>0.02709588446238508</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.06489854259464575</v>
-      </c>
-      <c r="R68" t="n">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69">
@@ -4545,16 +4339,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.02642722924550374</v>
+        <v>0.05013031959533691</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01099346573351682</v>
+        <v>0.002554077931893901</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01727986335754395</v>
+        <v>0.02338013648986816</v>
       </c>
       <c r="E69" t="n">
-        <v>0.002970275273867705</v>
+        <v>0.00293923462696333</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -4562,42 +4356,39 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 4, 'min_samples_split': 0.9}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 6, 'min_samples_leaf': 90}</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>0.1654387287245843</v>
+        <v>0.2153763893233537</v>
       </c>
       <c r="K69" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.2055691095738229</v>
       </c>
       <c r="L69" t="n">
-        <v>0.2442078658190253</v>
+        <v>0.2256950414049972</v>
       </c>
       <c r="M69" t="n">
-        <v>0.1784404361354873</v>
+        <v>0.237034942265905</v>
       </c>
       <c r="N69" t="n">
-        <v>0.1996493648355396</v>
+        <v>0.2598076209016291</v>
       </c>
       <c r="O69" t="n">
-        <v>0.3780863816331688</v>
+        <v>0.2286966206939416</v>
       </c>
       <c r="P69" t="n">
-        <v>0.2257983641393048</v>
+        <v>0.01875495536206487</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.07240729529799267</v>
-      </c>
-      <c r="R69" t="n">
-        <v>111</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70">
@@ -4605,16 +4396,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02393607298533122</v>
+        <v>0.04383134841918945</v>
       </c>
       <c r="C70" t="n">
-        <v>0.002230237287304659</v>
+        <v>0.008317723446982473</v>
       </c>
       <c r="D70" t="n">
-        <v>0.02143243948618571</v>
+        <v>0.02161564826965332</v>
       </c>
       <c r="E70" t="n">
-        <v>0.008481284784510565</v>
+        <v>0.004420331665059303</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4622,42 +4413,39 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 4, 'min_samples_split': 0.1}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 6, 'min_samples_leaf': 100}</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>0.2727649847776814</v>
+        <v>0.2425907136222856</v>
       </c>
       <c r="K70" t="n">
-        <v>0.3463364495200958</v>
+        <v>0.2393752562061977</v>
       </c>
       <c r="L70" t="n">
-        <v>0.2917627147859395</v>
+        <v>0.2878084835773534</v>
       </c>
       <c r="M70" t="n">
-        <v>0.2946706091941781</v>
+        <v>0.2444070355838451</v>
       </c>
       <c r="N70" t="n">
-        <v>0.2633066158437034</v>
+        <v>0.2598076209016291</v>
       </c>
       <c r="O70" t="n">
-        <v>0.4033130484520762</v>
+        <v>0.2547978219782622</v>
       </c>
       <c r="P70" t="n">
-        <v>0.3120257370956124</v>
+        <v>0.01794234842914881</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.04854095897193961</v>
-      </c>
-      <c r="R70" t="n">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -4665,16 +4453,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02774500846862793</v>
+        <v>0.05025467872619629</v>
       </c>
       <c r="C71" t="n">
-        <v>0.007230183877023356</v>
+        <v>0.0184327567327691</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01597813765207927</v>
+        <v>0.03215441703796387</v>
       </c>
       <c r="E71" t="n">
-        <v>0.001628061120455954</v>
+        <v>0.02133437473125264</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4682,42 +4470,39 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H71" t="n">
-        <v>0.11</v>
+        <v>110</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 4, 'min_samples_split': 0.11}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 6, 'min_samples_leaf': 110}</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>0.2727649847776814</v>
+        <v>0.2360015861681228</v>
       </c>
       <c r="K71" t="n">
-        <v>0.3463364495200958</v>
+        <v>0.2480640290632423</v>
       </c>
       <c r="L71" t="n">
-        <v>0.2917627147859395</v>
+        <v>0.2759014044248789</v>
       </c>
       <c r="M71" t="n">
-        <v>0.2946706091941781</v>
+        <v>0.2029175770411048</v>
       </c>
       <c r="N71" t="n">
-        <v>0.2633066158437034</v>
+        <v>0.2598076209016291</v>
       </c>
       <c r="O71" t="n">
-        <v>0.4033130484520762</v>
+        <v>0.2445384435197956</v>
       </c>
       <c r="P71" t="n">
-        <v>0.3120257370956124</v>
+        <v>0.0246348830236949</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.04854095897193961</v>
-      </c>
-      <c r="R71" t="n">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72">
@@ -4725,16 +4510,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.02278761068979899</v>
+        <v>0.03503303527832032</v>
       </c>
       <c r="C72" t="n">
-        <v>0.002349053891219949</v>
+        <v>0.00823642385223247</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01590085029602051</v>
+        <v>0.02409486770629883</v>
       </c>
       <c r="E72" t="n">
-        <v>0.002237551387165607</v>
+        <v>0.007329598754349114</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -4742,42 +4527,39 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H72" t="n">
-        <v>0.12</v>
+        <v>120</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 4, 'min_samples_split': 0.12}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 6, 'min_samples_leaf': 120}</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>0.2727649847776814</v>
+        <v>0.2130595687307669</v>
       </c>
       <c r="K72" t="n">
-        <v>0.3463364495200958</v>
+        <v>0.2601145968649977</v>
       </c>
       <c r="L72" t="n">
-        <v>0.2917627147859395</v>
+        <v>0.316859104577517</v>
       </c>
       <c r="M72" t="n">
-        <v>0.2946706091941781</v>
+        <v>0.2666100072690397</v>
       </c>
       <c r="N72" t="n">
-        <v>0.2633066158437034</v>
+        <v>0.2550110844561306</v>
       </c>
       <c r="O72" t="n">
-        <v>0.3533930698689073</v>
+        <v>0.2623308723796903</v>
       </c>
       <c r="P72" t="n">
-        <v>0.3037057406650843</v>
+        <v>0.03309921944000697</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.03439936324496357</v>
-      </c>
-      <c r="R72" t="n">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -4785,16 +4567,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.02683619658152262</v>
+        <v>0.04884934425354004</v>
       </c>
       <c r="C73" t="n">
-        <v>0.004602831898076374</v>
+        <v>0.009527218127028688</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01614149411519368</v>
+        <v>0.02476954460144043</v>
       </c>
       <c r="E73" t="n">
-        <v>0.002668827186842601</v>
+        <v>0.001320787327237034</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -4802,42 +4584,39 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H73" t="n">
-        <v>0.15</v>
+        <v>130</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 4, 'min_samples_split': 0.15}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 6, 'min_samples_leaf': 130}</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>0.2727649847776814</v>
+        <v>0.232557940432769</v>
       </c>
       <c r="K73" t="n">
-        <v>0.3463364495200958</v>
+        <v>0.2486594522811893</v>
       </c>
       <c r="L73" t="n">
-        <v>0.2917627147859395</v>
+        <v>0.3111309449695655</v>
       </c>
       <c r="M73" t="n">
-        <v>0.2946706091941781</v>
+        <v>0.2474812459294292</v>
       </c>
       <c r="N73" t="n">
-        <v>0.2633066158437034</v>
+        <v>0.1794897271783374</v>
       </c>
       <c r="O73" t="n">
-        <v>0.3533930698689073</v>
+        <v>0.2438638621582581</v>
       </c>
       <c r="P73" t="n">
-        <v>0.3037057406650843</v>
+        <v>0.04203045729086068</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.03439936324496357</v>
-      </c>
-      <c r="R73" t="n">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74">
@@ -4845,16 +4624,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.02008330821990967</v>
+        <v>0.05183706283569336</v>
       </c>
       <c r="C74" t="n">
-        <v>0.002741511648759355</v>
+        <v>0.004507285952944782</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01679182052612305</v>
+        <v>0.0240447998046875</v>
       </c>
       <c r="E74" t="n">
-        <v>0.005564474459472827</v>
+        <v>0.003508705098627862</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -4862,42 +4641,39 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H74" t="n">
-        <v>0.8</v>
+        <v>50</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_split': 0.8}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 7, 'min_samples_leaf': 50}</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>0.222969666492857</v>
+        <v>0.2424065600036689</v>
       </c>
       <c r="K74" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.208829398752531</v>
       </c>
       <c r="L74" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.2783730867526542</v>
       </c>
       <c r="M74" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.2083764559565797</v>
       </c>
       <c r="N74" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.2096091115019226</v>
       </c>
       <c r="O74" t="n">
-        <v>0.3780863816331688</v>
+        <v>0.2295189225934712</v>
       </c>
       <c r="P74" t="n">
-        <v>0.2389839920547677</v>
+        <v>0.02765603523163499</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.06489854259464575</v>
-      </c>
-      <c r="R74" t="n">
-        <v>101</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75">
@@ -4905,16 +4681,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01593907674153646</v>
+        <v>0.05086426734924317</v>
       </c>
       <c r="C75" t="n">
-        <v>0.002358901733077912</v>
+        <v>0.007419369179866874</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01794242858886719</v>
+        <v>0.02706928253173828</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003957586921897803</v>
+        <v>0.005992628948724346</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -4922,42 +4698,39 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9</v>
+        <v>60</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_split': 0.9}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 7, 'min_samples_leaf': 60}</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>0.1654387287245843</v>
+        <v>0.2631360701227182</v>
       </c>
       <c r="K75" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.1980018322785368</v>
       </c>
       <c r="L75" t="n">
-        <v>0.2442078658190253</v>
+        <v>0.2431485404430529</v>
       </c>
       <c r="M75" t="n">
-        <v>0.1784404361354873</v>
+        <v>0.1913642164533912</v>
       </c>
       <c r="N75" t="n">
-        <v>0.1996493648355396</v>
+        <v>0.2393378445764744</v>
       </c>
       <c r="O75" t="n">
-        <v>0.3780863816331688</v>
+        <v>0.2269977007748347</v>
       </c>
       <c r="P75" t="n">
-        <v>0.2257983641393048</v>
+        <v>0.02767531790205435</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.07240729529799267</v>
-      </c>
-      <c r="R75" t="n">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76">
@@ -4965,16 +4738,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0267794132232666</v>
+        <v>0.0495668888092041</v>
       </c>
       <c r="C76" t="n">
-        <v>0.00425239665356433</v>
+        <v>0.01017517942123491</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01583051681518555</v>
+        <v>0.02466845512390137</v>
       </c>
       <c r="E76" t="n">
-        <v>0.003024272886011637</v>
+        <v>0.005143824362638117</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -4982,42 +4755,39 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1</v>
+        <v>70</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_split': 0.1}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 7, 'min_samples_leaf': 70}</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>0.3157660811660977</v>
+        <v>0.2635742207634448</v>
       </c>
       <c r="K76" t="n">
-        <v>0.4046066716773865</v>
+        <v>0.2001318393618071</v>
       </c>
       <c r="L76" t="n">
-        <v>0.4025011566526756</v>
+        <v>0.2490068971446982</v>
       </c>
       <c r="M76" t="n">
-        <v>0.4197478715470454</v>
+        <v>0.2550027045851411</v>
       </c>
       <c r="N76" t="n">
-        <v>0.2487498394795062</v>
+        <v>0.2547906950678437</v>
       </c>
       <c r="O76" t="n">
-        <v>0.5476137353368848</v>
+        <v>0.244501271384587</v>
       </c>
       <c r="P76" t="n">
-        <v>0.389830892643266</v>
+        <v>0.0226666137679275</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.09269912816228447</v>
-      </c>
-      <c r="R76" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77">
@@ -5025,16 +4795,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.02751938501993815</v>
+        <v>0.05127725601196289</v>
       </c>
       <c r="C77" t="n">
-        <v>0.002832039405706717</v>
+        <v>0.006997782520198799</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01958171526590983</v>
+        <v>0.02206521034240723</v>
       </c>
       <c r="E77" t="n">
-        <v>0.00865839419577695</v>
+        <v>0.00550639013024466</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -5042,42 +4812,39 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H77" t="n">
-        <v>0.11</v>
+        <v>80</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_split': 0.11}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 7, 'min_samples_leaf': 80}</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>0.3157660811660977</v>
+        <v>0.216827270703931</v>
       </c>
       <c r="K77" t="n">
-        <v>0.4046066716773865</v>
+        <v>0.1995236337440267</v>
       </c>
       <c r="L77" t="n">
-        <v>0.4025011566526756</v>
+        <v>0.3057508035188317</v>
       </c>
       <c r="M77" t="n">
-        <v>0.4197478715470454</v>
+        <v>0.3648112229449579</v>
       </c>
       <c r="N77" t="n">
-        <v>0.2487498394795062</v>
+        <v>0.3055797151000173</v>
       </c>
       <c r="O77" t="n">
-        <v>0.5438441138053413</v>
+        <v>0.2784985292023529</v>
       </c>
       <c r="P77" t="n">
-        <v>0.3892026223880088</v>
+        <v>0.06158950628732449</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.09163428095373026</v>
-      </c>
-      <c r="R77" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -5085,16 +4852,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.02706662813822429</v>
+        <v>0.04633703231811524</v>
       </c>
       <c r="C78" t="n">
-        <v>0.004551717746043859</v>
+        <v>0.005950899564618292</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01562190055847168</v>
+        <v>0.0217195987701416</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003328087527592021</v>
+        <v>0.001958967555006245</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -5102,42 +4869,39 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H78" t="n">
-        <v>0.12</v>
+        <v>90</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_split': 0.12}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 7, 'min_samples_leaf': 90}</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>0.2918056947929721</v>
+        <v>0.2205308487155301</v>
       </c>
       <c r="K78" t="n">
-        <v>0.3804664831218626</v>
+        <v>0.2221461067993904</v>
       </c>
       <c r="L78" t="n">
-        <v>0.4025011566526756</v>
+        <v>0.3165581828854868</v>
       </c>
       <c r="M78" t="n">
-        <v>0.4197478715470454</v>
+        <v>0.2484996765873361</v>
       </c>
       <c r="N78" t="n">
-        <v>0.2487498394795062</v>
+        <v>0.2396225515859568</v>
       </c>
       <c r="O78" t="n">
-        <v>0.5159563454681342</v>
+        <v>0.2494714733147401</v>
       </c>
       <c r="P78" t="n">
-        <v>0.376537898510366</v>
+        <v>0.03516477685559629</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.0870856513726964</v>
-      </c>
-      <c r="R78" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
@@ -5145,16 +4909,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.02554575602213542</v>
+        <v>0.05124425888061523</v>
       </c>
       <c r="C79" t="n">
-        <v>0.00728182304794875</v>
+        <v>0.02843131348373676</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01885839303334554</v>
+        <v>0.0334226131439209</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003542705375380774</v>
+        <v>0.01617159722296296</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -5162,42 +4926,39 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H79" t="n">
-        <v>0.15</v>
+        <v>100</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_split': 0.15}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 7, 'min_samples_leaf': 100}</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>0.2848283328517404</v>
+        <v>0.2077153336370305</v>
       </c>
       <c r="K79" t="n">
-        <v>0.3804664831218626</v>
+        <v>0.2398977469274659</v>
       </c>
       <c r="L79" t="n">
-        <v>0.3653396880250689</v>
+        <v>0.2534394985500369</v>
       </c>
       <c r="M79" t="n">
-        <v>0.379933711961625</v>
+        <v>0.1969677966768783</v>
       </c>
       <c r="N79" t="n">
-        <v>0.2276955287820411</v>
+        <v>0.2718572830622777</v>
       </c>
       <c r="O79" t="n">
-        <v>0.5159563454681342</v>
+        <v>0.2339755317707378</v>
       </c>
       <c r="P79" t="n">
-        <v>0.3590366817017454</v>
+        <v>0.02795752556597656</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.08973740256732189</v>
-      </c>
-      <c r="R79" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80">
@@ -5205,16 +4966,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02260820070902507</v>
+        <v>0.04754700660705567</v>
       </c>
       <c r="C80" t="n">
-        <v>0.004573085308867087</v>
+        <v>0.01134980695894235</v>
       </c>
       <c r="D80" t="n">
-        <v>0.02041788895924886</v>
+        <v>0.01829485893249512</v>
       </c>
       <c r="E80" t="n">
-        <v>0.005761890025201114</v>
+        <v>0.003333416836973498</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -5222,42 +4983,39 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H80" t="n">
-        <v>0.8</v>
+        <v>110</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 6, 'min_samples_split': 0.8}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 7, 'min_samples_leaf': 110}</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>0.222969666492857</v>
+        <v>0.2776588244831599</v>
       </c>
       <c r="K80" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.2374278619753464</v>
       </c>
       <c r="L80" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.231783321020836</v>
       </c>
       <c r="M80" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.1720968603924353</v>
       </c>
       <c r="N80" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.2698850369717347</v>
       </c>
       <c r="O80" t="n">
-        <v>0.3780863816331688</v>
+        <v>0.2377703809687025</v>
       </c>
       <c r="P80" t="n">
-        <v>0.2389839920547677</v>
+        <v>0.03734009257396317</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.06489854259464575</v>
-      </c>
-      <c r="R80" t="n">
-        <v>101</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81">
@@ -5265,16 +5023,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02319673697153727</v>
+        <v>0.05364527702331543</v>
       </c>
       <c r="C81" t="n">
-        <v>0.01135877956306986</v>
+        <v>0.01053957709122444</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01816439628601074</v>
+        <v>0.02315378189086914</v>
       </c>
       <c r="E81" t="n">
-        <v>0.006387102467587197</v>
+        <v>0.002785248891592103</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -5282,42 +5040,39 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9</v>
+        <v>120</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 6, 'min_samples_split': 0.9}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 7, 'min_samples_leaf': 120}</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>0.1654387287245843</v>
+        <v>0.3310267568060757</v>
       </c>
       <c r="K81" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.2484442606250321</v>
       </c>
       <c r="L81" t="n">
-        <v>0.2442078658190253</v>
+        <v>0.2696996337382234</v>
       </c>
       <c r="M81" t="n">
-        <v>0.1784404361354873</v>
+        <v>0.196338479584768</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1996493648355396</v>
+        <v>0.289769812442691</v>
       </c>
       <c r="O81" t="n">
-        <v>0.3780863816331688</v>
+        <v>0.267055788639358</v>
       </c>
       <c r="P81" t="n">
-        <v>0.2257983641393048</v>
+        <v>0.04463749172474372</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.07240729529799267</v>
-      </c>
-      <c r="R81" t="n">
-        <v>111</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -5325,16 +5080,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.02535168329874675</v>
+        <v>0.04321441650390625</v>
       </c>
       <c r="C82" t="n">
-        <v>0.002511212980884866</v>
+        <v>0.007213790439533962</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01799805959065755</v>
+        <v>0.01972212791442871</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003032082683394425</v>
+        <v>0.001142992032306764</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -5342,42 +5097,39 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1</v>
+        <v>130</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 6, 'min_samples_split': 0.1}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 7, 'min_samples_leaf': 130}</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>0.3007280397119249</v>
+        <v>0.2455613413554878</v>
       </c>
       <c r="K82" t="n">
-        <v>0.4057331587828173</v>
+        <v>0.2420922799992404</v>
       </c>
       <c r="L82" t="n">
-        <v>0.3809712671511811</v>
+        <v>0.289527130123725</v>
       </c>
       <c r="M82" t="n">
-        <v>0.4409572660422472</v>
+        <v>0.2054237853404414</v>
       </c>
       <c r="N82" t="n">
-        <v>0.2786711625895487</v>
+        <v>0.192186554131771</v>
       </c>
       <c r="O82" t="n">
-        <v>0.4773354992133685</v>
+        <v>0.2349582181901331</v>
       </c>
       <c r="P82" t="n">
-        <v>0.3807327322485146</v>
+        <v>0.03418416352185991</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.07118225681406541</v>
-      </c>
-      <c r="R82" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83">
@@ -5385,16 +5137,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.03158001104990641</v>
+        <v>0.04832711219787598</v>
       </c>
       <c r="C83" t="n">
-        <v>0.007500737483632748</v>
+        <v>0.004944818747737157</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01678931713104248</v>
+        <v>0.01936469078063965</v>
       </c>
       <c r="E83" t="n">
-        <v>0.002785668175782391</v>
+        <v>0.001697817078001183</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -5402,42 +5154,39 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H83" t="n">
-        <v>0.11</v>
+        <v>50</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 6, 'min_samples_split': 0.11}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 8, 'min_samples_leaf': 50}</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>0.3007280397119249</v>
+        <v>0.2711260212138213</v>
       </c>
       <c r="K83" t="n">
-        <v>0.4349496813297351</v>
+        <v>0.173325311534487</v>
       </c>
       <c r="L83" t="n">
-        <v>0.3809712671511811</v>
+        <v>0.2588747533257358</v>
       </c>
       <c r="M83" t="n">
-        <v>0.4409572660422472</v>
+        <v>0.254954303292564</v>
       </c>
       <c r="N83" t="n">
-        <v>0.2786711625895487</v>
+        <v>0.1820558774242091</v>
       </c>
       <c r="O83" t="n">
-        <v>0.3835699672390151</v>
+        <v>0.2280672533581635</v>
       </c>
       <c r="P83" t="n">
-        <v>0.3699745640106087</v>
+        <v>0.04156873803145052</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.06150537180571423</v>
-      </c>
-      <c r="R83" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84">
@@ -5445,16 +5194,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.02825756867726644</v>
+        <v>0.04212074279785157</v>
       </c>
       <c r="C84" t="n">
-        <v>0.005862595267886754</v>
+        <v>0.00329764108980176</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01434008280436198</v>
+        <v>0.01904239654541016</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0009301030615664882</v>
+        <v>0.004013122421131663</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -5462,42 +5211,39 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H84" t="n">
-        <v>0.12</v>
+        <v>60</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 6, 'min_samples_split': 0.12}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 8, 'min_samples_leaf': 60}</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>0.292051831104203</v>
+        <v>0.2126191224609503</v>
       </c>
       <c r="K84" t="n">
-        <v>0.4237899003625472</v>
+        <v>0.1764267910018543</v>
       </c>
       <c r="L84" t="n">
-        <v>0.3809712671511811</v>
+        <v>0.2216179756160262</v>
       </c>
       <c r="M84" t="n">
-        <v>0.4409572660422472</v>
+        <v>0.2617859973105184</v>
       </c>
       <c r="N84" t="n">
-        <v>0.2786711625895487</v>
+        <v>0.2007596683576931</v>
       </c>
       <c r="O84" t="n">
-        <v>0.4055908592063418</v>
+        <v>0.2146419109494084</v>
       </c>
       <c r="P84" t="n">
-        <v>0.3703387144093448</v>
+        <v>0.02803010553782076</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.06289084480192246</v>
-      </c>
-      <c r="R84" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85">
@@ -5505,16 +5251,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.03144387404123942</v>
+        <v>0.05120577812194824</v>
       </c>
       <c r="C85" t="n">
-        <v>0.005120100166835793</v>
+        <v>0.01157979590272469</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01748438676198323</v>
+        <v>0.018963623046875</v>
       </c>
       <c r="E85" t="n">
-        <v>0.003389745667004863</v>
+        <v>0.002906847658343594</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -5522,42 +5268,39 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H85" t="n">
-        <v>0.15</v>
+        <v>70</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 6, 'min_samples_split': 0.15}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 8, 'min_samples_leaf': 70}</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>0.3176100508270048</v>
+        <v>0.2383369406166217</v>
       </c>
       <c r="K85" t="n">
-        <v>0.4094036435560079</v>
+        <v>0.17875248692709</v>
       </c>
       <c r="L85" t="n">
-        <v>0.3878081821419245</v>
+        <v>0.2164072967324701</v>
       </c>
       <c r="M85" t="n">
-        <v>0.3700632626685859</v>
+        <v>0.2414503284069655</v>
       </c>
       <c r="N85" t="n">
-        <v>0.2823443633279846</v>
+        <v>0.1639977669901682</v>
       </c>
       <c r="O85" t="n">
-        <v>0.5226137140536604</v>
+        <v>0.2077889639346631</v>
       </c>
       <c r="P85" t="n">
-        <v>0.3816405360958613</v>
+        <v>0.0313091932970343</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.07613139204388426</v>
-      </c>
-      <c r="R85" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86">
@@ -5565,16 +5308,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.02147098382314046</v>
+        <v>0.04559874534606934</v>
       </c>
       <c r="C86" t="n">
-        <v>0.005781371667724544</v>
+        <v>0.007439558749700938</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01869376500447591</v>
+        <v>0.02240948677062988</v>
       </c>
       <c r="E86" t="n">
-        <v>0.005256303451750603</v>
+        <v>0.00650086294555157</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -5582,42 +5325,39 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H86" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 7, 'min_samples_split': 0.8}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 8, 'min_samples_leaf': 80}</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>0.222969666492857</v>
+        <v>0.2329530188527625</v>
       </c>
       <c r="K86" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.1809126579073858</v>
       </c>
       <c r="L86" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.2421342797764377</v>
       </c>
       <c r="M86" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.2571426351185603</v>
       </c>
       <c r="N86" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.2583701679722537</v>
       </c>
       <c r="O86" t="n">
-        <v>0.3780863816331688</v>
+        <v>0.23430255192548</v>
       </c>
       <c r="P86" t="n">
-        <v>0.2389839920547677</v>
+        <v>0.02833569313198781</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.06489854259464575</v>
-      </c>
-      <c r="R86" t="n">
-        <v>101</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87">
@@ -5625,16 +5365,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.01795272032419841</v>
+        <v>0.04590678215026855</v>
       </c>
       <c r="C87" t="n">
-        <v>0.003547826882256967</v>
+        <v>0.01484718991573583</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0211106538772583</v>
+        <v>0.02805943489074707</v>
       </c>
       <c r="E87" t="n">
-        <v>0.003226373728350264</v>
+        <v>0.01386235901255141</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -5642,42 +5382,39 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H87" t="n">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 7, 'min_samples_split': 0.9}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 8, 'min_samples_leaf': 90}</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>0.1654387287245843</v>
+        <v>0.2356962033167176</v>
       </c>
       <c r="K87" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.1782344067207789</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2442078658190253</v>
+        <v>0.2932982486613018</v>
       </c>
       <c r="M87" t="n">
-        <v>0.1784404361354873</v>
+        <v>0.2473401168493795</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1996493648355396</v>
+        <v>0.2098791172708976</v>
       </c>
       <c r="O87" t="n">
-        <v>0.3780863816331688</v>
+        <v>0.2328896185638151</v>
       </c>
       <c r="P87" t="n">
-        <v>0.2257983641393048</v>
+        <v>0.03842543886617254</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.07240729529799267</v>
-      </c>
-      <c r="R87" t="n">
-        <v>111</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88">
@@ -5685,16 +5422,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0356367031733195</v>
+        <v>0.06168651580810547</v>
       </c>
       <c r="C88" t="n">
-        <v>0.006101891864504186</v>
+        <v>0.04210959868108605</v>
       </c>
       <c r="D88" t="n">
-        <v>0.02151203155517578</v>
+        <v>0.03916897773742676</v>
       </c>
       <c r="E88" t="n">
-        <v>0.005968428647499567</v>
+        <v>0.02569070155036081</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -5702,42 +5439,39 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 7, 'min_samples_split': 0.1}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 8, 'min_samples_leaf': 100}</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>0.2936853948640539</v>
+        <v>0.2254573706311045</v>
       </c>
       <c r="K88" t="n">
-        <v>0.3419636595870746</v>
+        <v>0.1941035992101902</v>
       </c>
       <c r="L88" t="n">
-        <v>0.3665929327545362</v>
+        <v>0.3945674027149206</v>
       </c>
       <c r="M88" t="n">
-        <v>0.3677684174849798</v>
+        <v>0.2136811458259482</v>
       </c>
       <c r="N88" t="n">
-        <v>0.2886543530140308</v>
+        <v>0.2099216490112049</v>
       </c>
       <c r="O88" t="n">
-        <v>0.5307048840752462</v>
+        <v>0.2475462334786737</v>
       </c>
       <c r="P88" t="n">
-        <v>0.3648949402966536</v>
+        <v>0.07419125385262501</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.08053296183374968</v>
-      </c>
-      <c r="R88" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
@@ -5745,16 +5479,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.03288495540618896</v>
+        <v>0.06661710739135743</v>
       </c>
       <c r="C89" t="n">
-        <v>0.005537441719071631</v>
+        <v>0.0202408360973687</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0146858294804891</v>
+        <v>0.02600240707397461</v>
       </c>
       <c r="E89" t="n">
-        <v>0.001150234807605294</v>
+        <v>0.00490733571738853</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -5762,42 +5496,39 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H89" t="n">
-        <v>0.11</v>
+        <v>110</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 7, 'min_samples_split': 0.11}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 8, 'min_samples_leaf': 110}</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>0.2936853948640539</v>
+        <v>0.2325705588533567</v>
       </c>
       <c r="K89" t="n">
-        <v>0.3937142075630337</v>
+        <v>0.2149200633405393</v>
       </c>
       <c r="L89" t="n">
-        <v>0.3564624069138618</v>
+        <v>0.3015228511307208</v>
       </c>
       <c r="M89" t="n">
-        <v>0.349430203090721</v>
+        <v>0.3595164518059883</v>
       </c>
       <c r="N89" t="n">
-        <v>0.3045768288371189</v>
+        <v>0.2039087425120803</v>
       </c>
       <c r="O89" t="n">
-        <v>0.5099199879760969</v>
+        <v>0.262487733528537</v>
       </c>
       <c r="P89" t="n">
-        <v>0.3679648382074811</v>
+        <v>0.05920731602250998</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.07167706354192768</v>
-      </c>
-      <c r="R89" t="n">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -5805,16 +5536,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.03046619892120361</v>
+        <v>0.04083576202392578</v>
       </c>
       <c r="C90" t="n">
-        <v>0.007373469698011868</v>
+        <v>0.009213254641976937</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01695883274078369</v>
+        <v>0.02212066650390625</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00282155459125504</v>
+        <v>0.006736529217960152</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -5822,42 +5553,39 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H90" t="n">
-        <v>0.12</v>
+        <v>120</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 7, 'min_samples_split': 0.12}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 8, 'min_samples_leaf': 120}</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>0.2748821104367</v>
+        <v>0.2672771789561948</v>
       </c>
       <c r="K90" t="n">
-        <v>0.3847474372689368</v>
+        <v>0.2239072574853018</v>
       </c>
       <c r="L90" t="n">
-        <v>0.3554949320263948</v>
+        <v>0.2459223280856946</v>
       </c>
       <c r="M90" t="n">
-        <v>0.4065279101086224</v>
+        <v>0.2891710379236469</v>
       </c>
       <c r="N90" t="n">
-        <v>0.2951007590995719</v>
+        <v>0.2347835370209756</v>
       </c>
       <c r="O90" t="n">
-        <v>0.5425040552680874</v>
+        <v>0.2522122678943627</v>
       </c>
       <c r="P90" t="n">
-        <v>0.3765428673680522</v>
+        <v>0.02339828987036914</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.08748359439138675</v>
-      </c>
-      <c r="R90" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
@@ -5865,16 +5593,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.03224905331929525</v>
+        <v>0.04977316856384277</v>
       </c>
       <c r="C91" t="n">
-        <v>0.008551963879379077</v>
+        <v>0.006528391714068825</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01728717486063639</v>
+        <v>0.02810196876525879</v>
       </c>
       <c r="E91" t="n">
-        <v>0.004527498474671681</v>
+        <v>0.008169539091583172</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -5882,42 +5610,39 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H91" t="n">
-        <v>0.15</v>
+        <v>130</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 7, 'min_samples_split': 0.15}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 8, 'min_samples_leaf': 130}</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>0.2974076409021819</v>
+        <v>0.2210614352815173</v>
       </c>
       <c r="K91" t="n">
-        <v>0.4521338728800815</v>
+        <v>0.202500965805565</v>
       </c>
       <c r="L91" t="n">
-        <v>0.3581589733488014</v>
+        <v>0.271064403728644</v>
       </c>
       <c r="M91" t="n">
-        <v>0.3810861076732674</v>
+        <v>0.3728329829224407</v>
       </c>
       <c r="N91" t="n">
-        <v>0.3040291831090384</v>
+        <v>0.1655345749956728</v>
       </c>
       <c r="O91" t="n">
-        <v>0.5720250501031074</v>
+        <v>0.246598872546768</v>
       </c>
       <c r="P91" t="n">
-        <v>0.3941401380027463</v>
+        <v>0.07169633080825522</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.09482310490490498</v>
-      </c>
-      <c r="R91" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92">
@@ -5925,16 +5650,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.02160855134328206</v>
+        <v>0.04455471038818359</v>
       </c>
       <c r="C92" t="n">
-        <v>0.00514069524744898</v>
+        <v>0.007353182524717419</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01556038856506348</v>
+        <v>0.02015929222106934</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002468425359150199</v>
+        <v>0.00296392903762854</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -5942,42 +5667,39 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H92" t="n">
-        <v>0.8</v>
+        <v>50</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 8, 'min_samples_split': 0.8}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 9, 'min_samples_leaf': 50}</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>0.222969666492857</v>
+        <v>0.2524416654493125</v>
       </c>
       <c r="K92" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.2058498101055649</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.1777569952874032</v>
       </c>
       <c r="M92" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.1937715064540391</v>
       </c>
       <c r="N92" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.1593028176366689</v>
       </c>
       <c r="O92" t="n">
-        <v>0.3780863816331688</v>
+        <v>0.1978245589865977</v>
       </c>
       <c r="P92" t="n">
-        <v>0.2389839920547677</v>
+        <v>0.03146582869770229</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.06489854259464575</v>
-      </c>
-      <c r="R92" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93">
@@ -5985,16 +5707,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.01678967475891113</v>
+        <v>0.04357671737670898</v>
       </c>
       <c r="C93" t="n">
-        <v>0.00259820320369315</v>
+        <v>0.006528096549632804</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01748959223429362</v>
+        <v>0.02009568214416504</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003025211642406846</v>
+        <v>0.002641216784394199</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -6002,42 +5724,39 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H93" t="n">
-        <v>0.9</v>
+        <v>60</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 8, 'min_samples_split': 0.9}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 9, 'min_samples_leaf': 60}</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>0.1654387287245843</v>
+        <v>0.1967939877478421</v>
       </c>
       <c r="K93" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.1930661481437382</v>
       </c>
       <c r="L93" t="n">
-        <v>0.2442078658190253</v>
+        <v>0.2294911485837513</v>
       </c>
       <c r="M93" t="n">
-        <v>0.1784404361354873</v>
+        <v>0.1692314521699474</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1996493648355396</v>
+        <v>0.1682316128347928</v>
       </c>
       <c r="O93" t="n">
-        <v>0.3780863816331688</v>
+        <v>0.1913628698960144</v>
       </c>
       <c r="P93" t="n">
-        <v>0.2257983641393048</v>
+        <v>0.02240990199620395</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.07240729529799267</v>
-      </c>
-      <c r="R93" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94">
@@ -6045,16 +5764,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.03229995568593343</v>
+        <v>0.05227313041687012</v>
       </c>
       <c r="C94" t="n">
-        <v>0.00373461829693159</v>
+        <v>0.01120738234330058</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01687538623809814</v>
+        <v>0.02142915725708008</v>
       </c>
       <c r="E94" t="n">
-        <v>0.00316082871351634</v>
+        <v>0.003791650132780462</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -6062,42 +5781,39 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1</v>
+        <v>70</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 8, 'min_samples_split': 0.1}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 9, 'min_samples_leaf': 70}</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>0.2984034508447178</v>
+        <v>0.2101813048391395</v>
       </c>
       <c r="K94" t="n">
-        <v>0.4463961715490655</v>
+        <v>0.1713150541036686</v>
       </c>
       <c r="L94" t="n">
-        <v>0.3632263775404998</v>
+        <v>0.1643279430988756</v>
       </c>
       <c r="M94" t="n">
-        <v>0.4778463431875717</v>
+        <v>0.2192224984314538</v>
       </c>
       <c r="N94" t="n">
-        <v>0.2560915328579899</v>
+        <v>0.1753710098192538</v>
       </c>
       <c r="O94" t="n">
-        <v>0.5920071790282618</v>
+        <v>0.1880835620584783</v>
       </c>
       <c r="P94" t="n">
-        <v>0.405661842501351</v>
+        <v>0.02220389546930828</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.1134833915466902</v>
-      </c>
-      <c r="R94" t="n">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95">
@@ -6105,16 +5821,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0309140682220459</v>
+        <v>0.05215444564819336</v>
       </c>
       <c r="C95" t="n">
-        <v>0.004498596051293617</v>
+        <v>0.009412067190314913</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01978190739949544</v>
+        <v>0.01984081268310547</v>
       </c>
       <c r="E95" t="n">
-        <v>0.004207956806141836</v>
+        <v>0.00170977563373913</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -6122,42 +5838,39 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H95" t="n">
-        <v>0.11</v>
+        <v>80</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 8, 'min_samples_split': 0.11}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 9, 'min_samples_leaf': 80}</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>0.2986406751569391</v>
+        <v>0.2055054592419072</v>
       </c>
       <c r="K95" t="n">
-        <v>0.4468119190427544</v>
+        <v>0.1656967664790302</v>
       </c>
       <c r="L95" t="n">
-        <v>0.3815653365939905</v>
+        <v>0.1937084713224337</v>
       </c>
       <c r="M95" t="n">
-        <v>0.4084980936809912</v>
+        <v>0.2243816781826883</v>
       </c>
       <c r="N95" t="n">
-        <v>0.2597717156361359</v>
+        <v>0.195038020766443</v>
       </c>
       <c r="O95" t="n">
-        <v>0.4339220964127145</v>
+        <v>0.1968660791985005</v>
       </c>
       <c r="P95" t="n">
-        <v>0.3715349727539209</v>
+        <v>0.01906087834034518</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.06931841579762721</v>
-      </c>
-      <c r="R95" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96">
@@ -6165,16 +5878,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02676538626352946</v>
+        <v>0.04638504981994629</v>
       </c>
       <c r="C96" t="n">
-        <v>0.006703284891144468</v>
+        <v>0.009361849228657222</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01495846112569173</v>
+        <v>0.02209930419921875</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001732356279156899</v>
+        <v>0.004065789294017559</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -6182,42 +5895,39 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H96" t="n">
-        <v>0.12</v>
+        <v>90</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 8, 'min_samples_split': 0.12}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 9, 'min_samples_leaf': 90}</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>0.3351045389215184</v>
+        <v>0.188621226718101</v>
       </c>
       <c r="K96" t="n">
-        <v>0.4062270741689327</v>
+        <v>0.1444246832406381</v>
       </c>
       <c r="L96" t="n">
-        <v>0.3382056490771541</v>
+        <v>0.2611246622568383</v>
       </c>
       <c r="M96" t="n">
-        <v>0.3538024521153337</v>
+        <v>0.2477891916824811</v>
       </c>
       <c r="N96" t="n">
-        <v>0.2861688000449102</v>
+        <v>0.192362010034978</v>
       </c>
       <c r="O96" t="n">
-        <v>0.5791071793821826</v>
+        <v>0.2068643547866073</v>
       </c>
       <c r="P96" t="n">
-        <v>0.3831026156183386</v>
+        <v>0.04256962661218777</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.0944517043728639</v>
-      </c>
-      <c r="R96" t="n">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97">
@@ -6225,16 +5935,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.02989606062571208</v>
+        <v>0.04493265151977539</v>
       </c>
       <c r="C97" t="n">
-        <v>0.005061488093165282</v>
+        <v>0.005812954103089572</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01610175768534343</v>
+        <v>0.02817654609680176</v>
       </c>
       <c r="E97" t="n">
-        <v>0.002263085549143288</v>
+        <v>0.009178181431069958</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -6242,42 +5952,39 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H97" t="n">
-        <v>0.15</v>
+        <v>100</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 8, 'min_samples_split': 0.15}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 9, 'min_samples_leaf': 100}</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>0.2974076409021819</v>
+        <v>0.185245188758013</v>
       </c>
       <c r="K97" t="n">
-        <v>0.3704521486608419</v>
+        <v>0.1552592607885226</v>
       </c>
       <c r="L97" t="n">
-        <v>0.412903507550292</v>
+        <v>0.327449183624039</v>
       </c>
       <c r="M97" t="n">
-        <v>0.3810861076732674</v>
+        <v>0.2727578824487866</v>
       </c>
       <c r="N97" t="n">
-        <v>0.3040291831090384</v>
+        <v>0.1795750364613309</v>
       </c>
       <c r="O97" t="n">
-        <v>0.5483836432690191</v>
+        <v>0.2240573104161384</v>
       </c>
       <c r="P97" t="n">
-        <v>0.3857103718607735</v>
+        <v>0.06523779621983763</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.08359171205371389</v>
-      </c>
-      <c r="R97" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98">
@@ -6285,16 +5992,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.01828300952911377</v>
+        <v>0.04732122421264649</v>
       </c>
       <c r="C98" t="n">
-        <v>0.003188605013283514</v>
+        <v>0.01121276325039685</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01493668556213379</v>
+        <v>0.02891478538513183</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001361704520552546</v>
+        <v>0.008838447358274219</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -6305,39 +6012,36 @@
         <v>9</v>
       </c>
       <c r="H98" t="n">
-        <v>0.8</v>
+        <v>110</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 9, 'min_samples_split': 0.8}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 9, 'min_samples_leaf': 110}</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>0.222969666492857</v>
+        <v>0.1751280263350875</v>
       </c>
       <c r="K98" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.1574628222748362</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.226201256865136</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.2837067648187094</v>
       </c>
       <c r="N98" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.2202634815447592</v>
       </c>
       <c r="O98" t="n">
-        <v>0.3780863816331688</v>
+        <v>0.2125524703677057</v>
       </c>
       <c r="P98" t="n">
-        <v>0.2389839920547677</v>
+        <v>0.04414553436802409</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.06489854259464575</v>
-      </c>
-      <c r="R98" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99">
@@ -6345,16 +6049,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0176164706548055</v>
+        <v>0.04153351783752442</v>
       </c>
       <c r="C99" t="n">
-        <v>0.004292653228077707</v>
+        <v>0.005577192101689533</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01945122083028157</v>
+        <v>0.02595796585083008</v>
       </c>
       <c r="E99" t="n">
-        <v>0.005042226885801689</v>
+        <v>0.00279853111016962</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -6365,39 +6069,36 @@
         <v>9</v>
       </c>
       <c r="H99" t="n">
-        <v>0.9</v>
+        <v>120</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 9, 'min_samples_split': 0.9}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 9, 'min_samples_leaf': 120}</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>0.1654387287245843</v>
+        <v>0.23677002929118</v>
       </c>
       <c r="K99" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.1722787108891096</v>
       </c>
       <c r="L99" t="n">
-        <v>0.2442078658190253</v>
+        <v>0.2122753737739673</v>
       </c>
       <c r="M99" t="n">
-        <v>0.1784404361354873</v>
+        <v>0.2535783988729002</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1996493648355396</v>
+        <v>0.2584569923298797</v>
       </c>
       <c r="O99" t="n">
-        <v>0.3780863816331688</v>
+        <v>0.2266719010314074</v>
       </c>
       <c r="P99" t="n">
-        <v>0.2257983641393048</v>
+        <v>0.03162942610996183</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.07240729529799267</v>
-      </c>
-      <c r="R99" t="n">
-        <v>111</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100">
@@ -6405,16 +6106,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.03158438205718994</v>
+        <v>0.04850287437438965</v>
       </c>
       <c r="C100" t="n">
-        <v>0.004448312176187614</v>
+        <v>0.001789056227535531</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01794791221618652</v>
+        <v>0.02446780204772949</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002880849138589142</v>
+        <v>0.006684320187271761</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -6425,39 +6126,36 @@
         <v>9</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1</v>
+        <v>130</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 9, 'min_samples_split': 0.1}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 9, 'min_samples_leaf': 130}</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>0.2984034508447178</v>
+        <v>0.2411069605203086</v>
       </c>
       <c r="K100" t="n">
-        <v>0.332622189234308</v>
+        <v>0.1925992464372802</v>
       </c>
       <c r="L100" t="n">
-        <v>0.3632263775404998</v>
+        <v>0.207919590968095</v>
       </c>
       <c r="M100" t="n">
-        <v>0.4084449263859351</v>
+        <v>0.3814001258376656</v>
       </c>
       <c r="N100" t="n">
-        <v>0.2842942245682795</v>
+        <v>0.158404807644904</v>
       </c>
       <c r="O100" t="n">
-        <v>0.6703965982984077</v>
+        <v>0.2362861462816507</v>
       </c>
       <c r="P100" t="n">
-        <v>0.392897961145358</v>
+        <v>0.07727873821269063</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.1306935074761723</v>
-      </c>
-      <c r="R100" t="n">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101">
@@ -6465,16 +6163,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.03091883659362793</v>
+        <v>0.04902572631835937</v>
       </c>
       <c r="C101" t="n">
-        <v>0.005116452306785453</v>
+        <v>0.008148064357829372</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01562190055847168</v>
+        <v>0.02021694183349609</v>
       </c>
       <c r="E101" t="n">
-        <v>0.001970175310098786</v>
+        <v>0.002723798992728046</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -6482,42 +6180,39 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H101" t="n">
-        <v>0.11</v>
+        <v>50</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 9, 'min_samples_split': 0.11}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_leaf': 50}</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>0.2986406751569391</v>
+        <v>0.2704517198497732</v>
       </c>
       <c r="K101" t="n">
-        <v>0.4811395178555897</v>
+        <v>0.1610959238235059</v>
       </c>
       <c r="L101" t="n">
-        <v>0.3815653365939905</v>
+        <v>0.2014118435721803</v>
       </c>
       <c r="M101" t="n">
-        <v>0.332880614970452</v>
+        <v>0.182278304652301</v>
       </c>
       <c r="N101" t="n">
-        <v>0.268233082132595</v>
+        <v>0.1663497039056057</v>
       </c>
       <c r="O101" t="n">
-        <v>0.4351593957824849</v>
+        <v>0.1963174991606732</v>
       </c>
       <c r="P101" t="n">
-        <v>0.3662697704153419</v>
+        <v>0.03964230600328022</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.07469327968563468</v>
-      </c>
-      <c r="R101" t="n">
-        <v>54</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102">
@@ -6525,16 +6220,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.03124745686848958</v>
+        <v>0.04920916557312012</v>
       </c>
       <c r="C102" t="n">
-        <v>0.004701150810350104</v>
+        <v>0.005115885522910526</v>
       </c>
       <c r="D102" t="n">
-        <v>0.01629022757212321</v>
+        <v>0.02020487785339355</v>
       </c>
       <c r="E102" t="n">
-        <v>0.002279465653362392</v>
+        <v>0.001531408301977152</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -6542,42 +6237,39 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H102" t="n">
-        <v>0.12</v>
+        <v>60</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 9, 'min_samples_split': 0.12}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_leaf': 60}</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>0.3351045389215184</v>
+        <v>0.2258390118810084</v>
       </c>
       <c r="K102" t="n">
-        <v>0.4062270741689327</v>
+        <v>0.1595847183041793</v>
       </c>
       <c r="L102" t="n">
-        <v>0.3382056490771541</v>
+        <v>0.1738262980432672</v>
       </c>
       <c r="M102" t="n">
-        <v>0.3538024521153337</v>
+        <v>0.1921520854507252</v>
       </c>
       <c r="N102" t="n">
-        <v>0.2861688000449102</v>
+        <v>0.1447709259652339</v>
       </c>
       <c r="O102" t="n">
-        <v>0.5813130685910667</v>
+        <v>0.1792346079288828</v>
       </c>
       <c r="P102" t="n">
-        <v>0.3834702638198193</v>
+        <v>0.02807826577918808</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.09521513396324506</v>
-      </c>
-      <c r="R102" t="n">
-        <v>36</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103">
@@ -6585,16 +6277,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.02908905347188314</v>
+        <v>0.04404125213623047</v>
       </c>
       <c r="C103" t="n">
-        <v>0.005624250819503809</v>
+        <v>0.004061802163348971</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01546116669972738</v>
+        <v>0.01742115020751953</v>
       </c>
       <c r="E103" t="n">
-        <v>0.002052620899078662</v>
+        <v>0.003292646011967779</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -6602,42 +6294,39 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H103" t="n">
-        <v>0.15</v>
+        <v>70</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 9, 'min_samples_split': 0.15}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_leaf': 70}</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>0.2974076409021819</v>
+        <v>0.2123185584111899</v>
       </c>
       <c r="K103" t="n">
-        <v>0.3704521486608419</v>
+        <v>0.1532869094361456</v>
       </c>
       <c r="L103" t="n">
-        <v>0.412903507550292</v>
+        <v>0.1842918994344205</v>
       </c>
       <c r="M103" t="n">
-        <v>0.3810861076732674</v>
+        <v>0.2017694977067109</v>
       </c>
       <c r="N103" t="n">
-        <v>0.3040291831090384</v>
+        <v>0.1532599277345822</v>
       </c>
       <c r="O103" t="n">
-        <v>0.5483836432690191</v>
+        <v>0.1809853585446098</v>
       </c>
       <c r="P103" t="n">
-        <v>0.3857103718607735</v>
+        <v>0.02433346117534636</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.08359171205371389</v>
-      </c>
-      <c r="R103" t="n">
-        <v>30</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104">
@@ -6645,16 +6334,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01978027820587158</v>
+        <v>0.0527700424194336</v>
       </c>
       <c r="C104" t="n">
-        <v>0.004866552282881102</v>
+        <v>0.008447284546438838</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01577417055765788</v>
+        <v>0.01852450370788574</v>
       </c>
       <c r="E104" t="n">
-        <v>0.00292258342360837</v>
+        <v>0.002214483951311767</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -6665,39 +6354,36 @@
         <v>10</v>
       </c>
       <c r="H104" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_split': 0.8}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_leaf': 80}</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>0.222969666492857</v>
+        <v>0.2588122001461231</v>
       </c>
       <c r="K104" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.1617896739329505</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1890452699657932</v>
+        <v>0.2676636235337603</v>
       </c>
       <c r="M104" t="n">
-        <v>0.2415932025752185</v>
+        <v>0.2487880531798409</v>
       </c>
       <c r="N104" t="n">
-        <v>0.2132420239735452</v>
+        <v>0.2130628472296</v>
       </c>
       <c r="O104" t="n">
-        <v>0.3780863816331688</v>
+        <v>0.230023279604455</v>
       </c>
       <c r="P104" t="n">
-        <v>0.2389839920547677</v>
+        <v>0.03883605379974326</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.06489854259464575</v>
-      </c>
-      <c r="R104" t="n">
-        <v>101</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105">
@@ -6705,16 +6391,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01662083466847738</v>
+        <v>0.05159039497375488</v>
       </c>
       <c r="C105" t="n">
-        <v>0.00405660030101674</v>
+        <v>0.003275448923911508</v>
       </c>
       <c r="D105" t="n">
-        <v>0.01444530487060547</v>
+        <v>0.02421002388000488</v>
       </c>
       <c r="E105" t="n">
-        <v>0.002050832127114626</v>
+        <v>0.005423324136292763</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -6725,39 +6411,36 @@
         <v>10</v>
       </c>
       <c r="H105" t="n">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_split': 0.9}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_leaf': 90}</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>0.1654387287245843</v>
+        <v>0.2111741567804322</v>
       </c>
       <c r="K105" t="n">
-        <v>0.1889674076880237</v>
+        <v>0.1429848623423623</v>
       </c>
       <c r="L105" t="n">
-        <v>0.2442078658190253</v>
+        <v>0.2158324679458074</v>
       </c>
       <c r="M105" t="n">
-        <v>0.1784404361354873</v>
+        <v>0.253234318431407</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1996493648355396</v>
+        <v>0.22958243652065</v>
       </c>
       <c r="O105" t="n">
-        <v>0.3780863816331688</v>
+        <v>0.2105616484041318</v>
       </c>
       <c r="P105" t="n">
-        <v>0.2257983641393048</v>
+        <v>0.03681718584416878</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.07240729529799267</v>
-      </c>
-      <c r="R105" t="n">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106">
@@ -6765,16 +6448,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.02770614624023438</v>
+        <v>0.04577045440673828</v>
       </c>
       <c r="C106" t="n">
-        <v>0.005221542505318334</v>
+        <v>0.00744460104962019</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0179514487584432</v>
+        <v>0.02072663307189941</v>
       </c>
       <c r="E106" t="n">
-        <v>0.003306141840967052</v>
+        <v>0.002268881440222007</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -6785,39 +6468,36 @@
         <v>10</v>
       </c>
       <c r="H106" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_split': 0.1}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_leaf': 100}</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>0.2984034508447178</v>
+        <v>0.1987628174479522</v>
       </c>
       <c r="K106" t="n">
-        <v>0.332622189234308</v>
+        <v>0.1406390820868998</v>
       </c>
       <c r="L106" t="n">
-        <v>0.3632263775404998</v>
+        <v>0.2309742118952491</v>
       </c>
       <c r="M106" t="n">
-        <v>0.4084449263859351</v>
+        <v>0.3241038844621715</v>
       </c>
       <c r="N106" t="n">
-        <v>0.2842942245682795</v>
+        <v>0.2281091152996102</v>
       </c>
       <c r="O106" t="n">
-        <v>0.6703965982984077</v>
+        <v>0.2245178222383766</v>
       </c>
       <c r="P106" t="n">
-        <v>0.392897961145358</v>
+        <v>0.05944901927475059</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.1306935074761723</v>
-      </c>
-      <c r="R106" t="n">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107">
@@ -6825,16 +6505,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.03319656848907471</v>
+        <v>0.04575519561767578</v>
       </c>
       <c r="C107" t="n">
-        <v>0.006846120498107911</v>
+        <v>0.007010423226287176</v>
       </c>
       <c r="D107" t="n">
-        <v>0.01524492104848226</v>
+        <v>0.02177867889404297</v>
       </c>
       <c r="E107" t="n">
-        <v>0.001707571525764827</v>
+        <v>0.005023680866677731</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -6845,39 +6525,36 @@
         <v>10</v>
       </c>
       <c r="H107" t="n">
-        <v>0.11</v>
+        <v>110</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_split': 0.11}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_leaf': 110}</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>0.2986406751569391</v>
+        <v>0.2141731647831596</v>
       </c>
       <c r="K107" t="n">
-        <v>0.4811395178555897</v>
+        <v>0.14736116336525</v>
       </c>
       <c r="L107" t="n">
-        <v>0.3815653365939905</v>
+        <v>0.1921288787917181</v>
       </c>
       <c r="M107" t="n">
-        <v>0.332880614970452</v>
+        <v>0.3213380377778345</v>
       </c>
       <c r="N107" t="n">
-        <v>0.268233082132595</v>
+        <v>0.2351536282901375</v>
       </c>
       <c r="O107" t="n">
-        <v>0.4351593957824849</v>
+        <v>0.2220309746016199</v>
       </c>
       <c r="P107" t="n">
-        <v>0.3662697704153419</v>
+        <v>0.05755963525867098</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.07469327968563468</v>
-      </c>
-      <c r="R107" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108">
@@ -6885,16 +6562,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.03307636578877767</v>
+        <v>0.04209794998168945</v>
       </c>
       <c r="C108" t="n">
-        <v>0.006894825759102974</v>
+        <v>0.006399920082364657</v>
       </c>
       <c r="D108" t="n">
-        <v>0.01814111073811849</v>
+        <v>0.02258944511413574</v>
       </c>
       <c r="E108" t="n">
-        <v>0.002519596585821364</v>
+        <v>0.003359218816605826</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -6905,39 +6582,36 @@
         <v>10</v>
       </c>
       <c r="H108" t="n">
-        <v>0.12</v>
+        <v>120</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_split': 0.12}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_leaf': 120}</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>0.3351045389215184</v>
+        <v>0.2766940114562269</v>
       </c>
       <c r="K108" t="n">
-        <v>0.4062270741689327</v>
+        <v>0.1457136633560192</v>
       </c>
       <c r="L108" t="n">
-        <v>0.3382056490771541</v>
+        <v>0.2015005815224565</v>
       </c>
       <c r="M108" t="n">
-        <v>0.3538024521153337</v>
+        <v>0.3616460322590739</v>
       </c>
       <c r="N108" t="n">
-        <v>0.2861688000449102</v>
+        <v>0.2461523221214878</v>
       </c>
       <c r="O108" t="n">
-        <v>0.5813130685910667</v>
+        <v>0.2463413221430528</v>
       </c>
       <c r="P108" t="n">
-        <v>0.3834702638198193</v>
+        <v>0.07259905698678619</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.09521513396324506</v>
-      </c>
-      <c r="R108" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109">
@@ -6945,16 +6619,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.02731589476267497</v>
+        <v>0.04609146118164063</v>
       </c>
       <c r="C109" t="n">
-        <v>0.001519925986481102</v>
+        <v>0.008394977783873417</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01795971393585205</v>
+        <v>0.02114467620849609</v>
       </c>
       <c r="E109" t="n">
-        <v>0.002869076291245795</v>
+        <v>0.004459876040362098</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -6965,759 +6639,36 @@
         <v>10</v>
       </c>
       <c r="H109" t="n">
-        <v>0.15</v>
+        <v>130</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_split': 0.15}</t>
+          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_leaf': 130}</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>0.2974076409021819</v>
+        <v>0.2144747217124447</v>
       </c>
       <c r="K109" t="n">
-        <v>0.3704521486608419</v>
+        <v>0.1620608619518961</v>
       </c>
       <c r="L109" t="n">
-        <v>0.412903507550292</v>
+        <v>0.2074341153652916</v>
       </c>
       <c r="M109" t="n">
-        <v>0.3810861076732674</v>
+        <v>0.3599554015829786</v>
       </c>
       <c r="N109" t="n">
-        <v>0.3040291831090384</v>
+        <v>0.1580203251092074</v>
       </c>
       <c r="O109" t="n">
-        <v>0.5483836432690191</v>
+        <v>0.2203890851443636</v>
       </c>
       <c r="P109" t="n">
-        <v>0.3857103718607735</v>
+        <v>0.07344877326428031</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.08359171205371389</v>
-      </c>
-      <c r="R109" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.02038578192392985</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.00314325596130364</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.01567987600962321</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.002088089676891592</v>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>entropy</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>11</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>{'criterion': 'entropy', 'max_depth': 11, 'min_samples_split': 0.8}</t>
-        </is>
-      </c>
-      <c r="J110" t="n">
-        <v>0.222969666492857</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.1889674076880237</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0.1890452699657932</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0.2415932025752185</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.2132420239735452</v>
-      </c>
-      <c r="O110" t="n">
-        <v>0.3780863816331688</v>
-      </c>
-      <c r="P110" t="n">
-        <v>0.2389839920547677</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>0.06489854259464575</v>
-      </c>
-      <c r="R110" t="n">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.01706512769063314</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.001735068379811128</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.01645370324452718</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.003539207739195834</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>entropy</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>11</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>{'criterion': 'entropy', 'max_depth': 11, 'min_samples_split': 0.9}</t>
-        </is>
-      </c>
-      <c r="J111" t="n">
-        <v>0.1654387287245843</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.1889674076880237</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0.2442078658190253</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0.1784404361354873</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.1996493648355396</v>
-      </c>
-      <c r="O111" t="n">
-        <v>0.3780863816331688</v>
-      </c>
-      <c r="P111" t="n">
-        <v>0.2257983641393048</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>0.07240729529799267</v>
-      </c>
-      <c r="R111" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.02975277105967204</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.007338349796226518</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.01446167627970378</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.001800066112497608</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>entropy</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
-        <v>11</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>{'criterion': 'entropy', 'max_depth': 11, 'min_samples_split': 0.1}</t>
-        </is>
-      </c>
-      <c r="J112" t="n">
-        <v>0.2984034508447178</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.332622189234308</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0.3632263775404998</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0.4084449263859351</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0.2842942245682795</v>
-      </c>
-      <c r="O112" t="n">
-        <v>0.6703965982984077</v>
-      </c>
-      <c r="P112" t="n">
-        <v>0.392897961145358</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0.1306935074761723</v>
-      </c>
-      <c r="R112" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.03041776021321614</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.001888194165047965</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.01596005757649739</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.003357169773550261</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>entropy</t>
-        </is>
-      </c>
-      <c r="G113" t="n">
-        <v>11</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>{'criterion': 'entropy', 'max_depth': 11, 'min_samples_split': 0.11}</t>
-        </is>
-      </c>
-      <c r="J113" t="n">
-        <v>0.2986406751569391</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.4811395178555897</v>
-      </c>
-      <c r="L113" t="n">
-        <v>0.3815653365939905</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0.332880614970452</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.268233082132595</v>
-      </c>
-      <c r="O113" t="n">
-        <v>0.4351593957824849</v>
-      </c>
-      <c r="P113" t="n">
-        <v>0.3662697704153419</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>0.07469327968563468</v>
-      </c>
-      <c r="R113" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.02759377161661784</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.004016847655718641</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.01512483755747477</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.001943023053680989</v>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>entropy</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
-        <v>11</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>{'criterion': 'entropy', 'max_depth': 11, 'min_samples_split': 0.12}</t>
-        </is>
-      </c>
-      <c r="J114" t="n">
-        <v>0.3351045389215184</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.4062270741689327</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0.3382056490771541</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0.3538024521153337</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.2861688000449102</v>
-      </c>
-      <c r="O114" t="n">
-        <v>0.5813130685910667</v>
-      </c>
-      <c r="P114" t="n">
-        <v>0.3834702638198193</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>0.09521513396324506</v>
-      </c>
-      <c r="R114" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.02925348281860352</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.003241784287772947</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.01678911844889323</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.003276205903742869</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>entropy</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>11</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>{'criterion': 'entropy', 'max_depth': 11, 'min_samples_split': 0.15}</t>
-        </is>
-      </c>
-      <c r="J115" t="n">
-        <v>0.2974076409021819</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.3704521486608419</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0.412903507550292</v>
-      </c>
-      <c r="M115" t="n">
-        <v>0.3810861076732674</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0.3040291831090384</v>
-      </c>
-      <c r="O115" t="n">
-        <v>0.5483836432690191</v>
-      </c>
-      <c r="P115" t="n">
-        <v>0.3857103718607735</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>0.08359171205371389</v>
-      </c>
-      <c r="R115" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.01745386918385823</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.002357330358869339</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.01579129695892334</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.002788415590201132</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>entropy</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
-        <v>12</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>{'criterion': 'entropy', 'max_depth': 12, 'min_samples_split': 0.8}</t>
-        </is>
-      </c>
-      <c r="J116" t="n">
-        <v>0.222969666492857</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.1889674076880237</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0.1890452699657932</v>
-      </c>
-      <c r="M116" t="n">
-        <v>0.2415932025752185</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0.2132420239735452</v>
-      </c>
-      <c r="O116" t="n">
-        <v>0.3780863816331688</v>
-      </c>
-      <c r="P116" t="n">
-        <v>0.2389839920547677</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>0.06489854259464575</v>
-      </c>
-      <c r="R116" t="n">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.0172886848449707</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.00291779399807919</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.01529264450073242</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.002421668777049543</v>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>entropy</t>
-        </is>
-      </c>
-      <c r="G117" t="n">
-        <v>12</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>{'criterion': 'entropy', 'max_depth': 12, 'min_samples_split': 0.9}</t>
-        </is>
-      </c>
-      <c r="J117" t="n">
-        <v>0.1654387287245843</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.1889674076880237</v>
-      </c>
-      <c r="L117" t="n">
-        <v>0.2442078658190253</v>
-      </c>
-      <c r="M117" t="n">
-        <v>0.1784404361354873</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.1996493648355396</v>
-      </c>
-      <c r="O117" t="n">
-        <v>0.3780863816331688</v>
-      </c>
-      <c r="P117" t="n">
-        <v>0.2257983641393048</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>0.07240729529799267</v>
-      </c>
-      <c r="R117" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.03241074085235596</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.004914006516416635</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.01645851135253906</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.002624992457365855</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>entropy</t>
-        </is>
-      </c>
-      <c r="G118" t="n">
-        <v>12</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>{'criterion': 'entropy', 'max_depth': 12, 'min_samples_split': 0.1}</t>
-        </is>
-      </c>
-      <c r="J118" t="n">
-        <v>0.2984034508447178</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.332622189234308</v>
-      </c>
-      <c r="L118" t="n">
-        <v>0.3632263775404998</v>
-      </c>
-      <c r="M118" t="n">
-        <v>0.4084449263859351</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.2842942245682795</v>
-      </c>
-      <c r="O118" t="n">
-        <v>0.6703965982984077</v>
-      </c>
-      <c r="P118" t="n">
-        <v>0.392897961145358</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>0.1306935074761723</v>
-      </c>
-      <c r="R118" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.02809286117553711</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.002726481241161799</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.01662242412567139</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.002616354241808439</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>entropy</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
-        <v>12</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>{'criterion': 'entropy', 'max_depth': 12, 'min_samples_split': 0.11}</t>
-        </is>
-      </c>
-      <c r="J119" t="n">
-        <v>0.2986406751569391</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.4811395178555897</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0.3815653365939905</v>
-      </c>
-      <c r="M119" t="n">
-        <v>0.332880614970452</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.268233082132595</v>
-      </c>
-      <c r="O119" t="n">
-        <v>0.4351593957824849</v>
-      </c>
-      <c r="P119" t="n">
-        <v>0.3662697704153419</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>0.07469327968563468</v>
-      </c>
-      <c r="R119" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.03141566117604574</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.003193070318805135</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.01645513375600179</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.003978220074401978</v>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>entropy</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
-        <v>12</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>{'criterion': 'entropy', 'max_depth': 12, 'min_samples_split': 0.12}</t>
-        </is>
-      </c>
-      <c r="J120" t="n">
-        <v>0.3351045389215184</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.4062270741689327</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0.3382056490771541</v>
-      </c>
-      <c r="M120" t="n">
-        <v>0.3538024521153337</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.2861688000449102</v>
-      </c>
-      <c r="O120" t="n">
-        <v>0.5813130685910667</v>
-      </c>
-      <c r="P120" t="n">
-        <v>0.3834702638198193</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>0.09521513396324506</v>
-      </c>
-      <c r="R120" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.02543493111928304</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.002053767963364601</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.01520681381225586</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.003500954462686767</v>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>entropy</t>
-        </is>
-      </c>
-      <c r="G121" t="n">
-        <v>12</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>{'criterion': 'entropy', 'max_depth': 12, 'min_samples_split': 0.15}</t>
-        </is>
-      </c>
-      <c r="J121" t="n">
-        <v>0.2974076409021819</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.3704521486608419</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0.412903507550292</v>
-      </c>
-      <c r="M121" t="n">
-        <v>0.3810861076732674</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.3040291831090384</v>
-      </c>
-      <c r="O121" t="n">
-        <v>0.5483836432690191</v>
-      </c>
-      <c r="P121" t="n">
-        <v>0.3857103718607735</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>0.08359171205371389</v>
-      </c>
-      <c r="R121" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
